--- a/data/hotels_by_city/Houston/Houston_shard_685.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_685.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107982-Reviews-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Wingate-By-Wyndham-HoustonWillowbrook.h487254.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1921 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r570819785-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107982</t>
+  </si>
+  <si>
+    <t>570819785</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Easter weekend</t>
+  </si>
+  <si>
+    <t>The food was very average considering there was a $9.99 fee. We have stayed at other hotels in the area for about the same price that offers a complimentary breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>GM W, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>The food was very average considering there was a $9.99 fee. We have stayed at other hotels in the area for about the same price that offers a complimentary breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r570387838-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570387838</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>We had a great stay! Everything was great only thing is...</t>
+  </si>
+  <si>
+    <t>We had a great stay! Everything was great only thing is that hot tub was a little dirty. Staff was great. When we checked everything was smooth when we needed extra covers and pillows they assisted us right away. Liked that it was right off express way. It was very calm and relaxing. We enjoyed ourselves and definitely will stay here if needed. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had a great stay! Everything was great only thing is that hot tub was a little dirty. Staff was great. When we checked everything was smooth when we needed extra covers and pillows they assisted us right away. Liked that it was right off express way. It was very calm and relaxing. We enjoyed ourselves and definitely will stay here if needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r566299024-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566299024</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>GM W, Front Office Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r565827789-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565827789</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>A quick family trip</t>
+  </si>
+  <si>
+    <t>Took a quick trip to Houston to visit family. This location was convenient and inexpensive. But definitely worth what we paid. MoreShow less</t>
+  </si>
+  <si>
+    <t>Took a quick trip to Houston to visit family. This location was convenient and inexpensive. But definitely worth what we paid. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r564402449-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564402449</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>The worst property I stay ever. I did complain and they said me to call back very next day but never call me back.</t>
+  </si>
+  <si>
+    <t>Very very very bad I also have Wyndham property but they way they treat me and the way they handel costumers is too badMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Very very very bad I also have Wyndham property but they way they treat me and the way they handel costumers is too badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r562805652-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562805652</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r557763511-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557763511</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>A Good Stay</t>
+  </si>
+  <si>
+    <t>We had a good overnight stay experience.  The room was clean and quiet with easy elevator access.  The staff was pleasant and professional especially Darryl.  The breakfast buffet at $15 did not offer value for the money.  One of the exterior doors did not allow for card key access but the lobby door was nearby and the front desk said they are working on the repair.  We would stay here again depending on the price for the night.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r556827537-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556827537</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>BETTER THAN EXPECTED FOLLOWING PRIOR REVIEWS</t>
+  </si>
+  <si>
+    <t>The hotel was clean and most of the service was friendly. Bartender on site needs a skills class on being inviting and friendly. Upon arrival he was in no hurry to serve and was more interested in eating his dinner than doing his job. The breakfast was very basic but good. It appeared the hotel was being remodeled during our stay. My room was clean and AC worked good. Had my Do Not Disturb sign up during my stay and came back one after noon a few days into my stay to find a bottle of soda that was not mine sitting on the floor next to my couch. I inquired at the front desk and was told a Manager (Brandon) had been in my room doing room checks? Unsure why he had to sit on my couch and put his soda down. Nothing was out of place or missing. Darrell was a great shuttle driver and navigated bad Houston traffic like a pro. Overall I had a good stay and would probably stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean and most of the service was friendly. Bartender on site needs a skills class on being inviting and friendly. Upon arrival he was in no hurry to serve and was more interested in eating his dinner than doing his job. The breakfast was very basic but good. It appeared the hotel was being remodeled during our stay. My room was clean and AC worked good. Had my Do Not Disturb sign up during my stay and came back one after noon a few days into my stay to find a bottle of soda that was not mine sitting on the floor next to my couch. I inquired at the front desk and was told a Manager (Brandon) had been in my room doing room checks? Unsure why he had to sit on my couch and put his soda down. Nothing was out of place or missing. Darrell was a great shuttle driver and navigated bad Houston traffic like a pro. Overall I had a good stay and would probably stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r555000968-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555000968</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>GM W, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r542575607-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542575607</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>What a nightmare!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work offshore and had to attend 15 days of training during my time off.  Historically, we have been placed in hotels with better than average accommodations.  From day one at Wyndham Garden, the bartender was less than professional, outgoing, personable....things in which you would think would be a must for someone who is in that position.  They frequently ran out of menu items and beer.  I will not recommend this place to anyone.  </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r541506142-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541506142</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r540946439-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540946439</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>This place is horrible, room was moldy, restaurant was always out off food, things stolen from room, service was rude.</t>
+  </si>
+  <si>
+    <t>This place I would never ever recommend to absolutely nobody.   On a business trip with several coworkers.  We had stuff stolen from our refrigerators. The staff was rude. The restuarant always seemed to be out of groceries.  The room was moldy. The a/c sounded like it was ready to eat itself.  The internet worked somewhat fast and I think that’s about all I can say good about the place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r536650516-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536650516</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r535513157-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535513157</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>I want to say that my first impression at the airport in Houston, Super Shuttle was angering! But I called the front desk, and Shea Jones came up to the plate! While still handling a full hotel of Harvey flood workers, Shea stepped up and got me an UBER from the Airport and another coworker that Super Shuttle left high and dry for two hours. I checked in, was offered a evening dinner, met Eddie who also took very good care of me. That is because Shea updated her coworker of the issues, we had laughter and good conversation. The next day Genevieve listened to my concerns and offered any and all assistance to make my stay most comfortable. I must also mention David, who was most pleasant to talk with on our way from our meetings today. All in All these folks did a better job then most people I encounter. Thanks folks!! ChrisMoreShow less</t>
+  </si>
+  <si>
+    <t>I want to say that my first impression at the airport in Houston, Super Shuttle was angering! But I called the front desk, and Shea Jones came up to the plate! While still handling a full hotel of Harvey flood workers, Shea stepped up and got me an UBER from the Airport and another coworker that Super Shuttle left high and dry for two hours. I checked in, was offered a evening dinner, met Eddie who also took very good care of me. That is because Shea updated her coworker of the issues, we had laughter and good conversation. The next day Genevieve listened to my concerns and offered any and all assistance to make my stay most comfortable. I must also mention David, who was most pleasant to talk with on our way from our meetings today. All in All these folks did a better job then most people I encounter. Thanks folks!! ChrisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r524648247-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524648247</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r521256356-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521256356</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>They made us feel very welcome</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey brought us to this hotel, and we couldn't have found a better place. The food service people were outstanding in their service. The housekeepers were very helpful. The front desk people, extremely patient and kind, especially Hans. Most of Houston was going through a nightmare, but you would never know, from the attitude of these employees,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey brought us to this hotel, and we couldn't have found a better place. The food service people were outstanding in their service. The housekeepers were very helpful. The front desk people, extremely patient and kind, especially Hans. Most of Houston was going through a nightmare, but you would never know, from the attitude of these employees,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r520485017-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520485017</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>We booked a room here during the Hurricane Harvey evacuation due to 5ft of water in our home and cars being flooded. Everyone has went above and beyond to make our stay comfortable for myself and my family. The staff is courteous and always willing to help especially Shea, David and Kim. The food in the restaurant is delicious and they have many different options to chose from and they are affordably priced. They even have happy hour! Thank you Wyndham for your assistance in our time of need. We are forever grateful and will recommend this hotel to our family and friends when visiting Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room here during the Hurricane Harvey evacuation due to 5ft of water in our home and cars being flooded. Everyone has went above and beyond to make our stay comfortable for myself and my family. The staff is courteous and always willing to help especially Shea, David and Kim. The food in the restaurant is delicious and they have many different options to chose from and they are affordably priced. They even have happy hour! Thank you Wyndham for your assistance in our time of need. We are forever grateful and will recommend this hotel to our family and friends when visiting Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r515060258-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515060258</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Family short getaway from home</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel and let me tell you the manger special on Tues. And Thursday are great my kids love the free buffet nachos with grill chicken and the also you get two free drinks and the cook are great and they had excellent room service the food was good I will be back soon I really like. The hotel it was very peaceful and quiet and spacious. Thanks to all the staff for making my stay great MoreShow less</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel and let me tell you the manger special on Tues. And Thursday are great my kids love the free buffet nachos with grill chicken and the also you get two free drinks and the cook are great and they had excellent room service the food was good I will be back soon I really like. The hotel it was very peaceful and quiet and spacious. Thanks to all the staff for making my stay great More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r508120906-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508120906</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r507887257-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507887257</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r502019517-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502019517</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Really Nice! Great Area!</t>
+  </si>
+  <si>
+    <t>We had a King Suite and it was very nice. The only small issues that we had is that the fridge in the room didn't get really cold and also when you flush the toilet the pipes sounded like someone was banging on the wall or door (hence the 4 stars only). Other than that everything else was perfect!!! Room was very clean and bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>We had a King Suite and it was very nice. The only small issues that we had is that the fridge in the room didn't get really cold and also when you flush the toilet the pipes sounded like someone was banging on the wall or door (hence the 4 stars only). Other than that everything else was perfect!!! Room was very clean and bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r493141890-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493141890</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and excellent staff.  The manager is outstanding and ready to help with anything that you might need.</t>
+  </si>
+  <si>
+    <t>I have a suite and it is big, spacious and the staff cleans it very nicely.   I have everything I need, a stove, (2) refrigerators, one microwave and (2) TV's.   My family love the rooms and the beds are excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>I have a suite and it is big, spacious and the staff cleans it very nicely.   I have everything I need, a stove, (2) refrigerators, one microwave and (2) TV's.   My family love the rooms and the beds are excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r491104924-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491104924</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This hotel provides the best service I have had from the other hotels I have stayed.  They had our rooms ready everything we requested was provided and the beds were great to sleep in.  The bathrooms were clean and sanitary.  The hotel manager did everything she could do to make our three night stay wonderful.  My wife and children loved this hotel and the swimming pool was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel provides the best service I have had from the other hotels I have stayed.  They had our rooms ready everything we requested was provided and the beds were great to sleep in.  The bathrooms were clean and sanitary.  The hotel manager did everything she could do to make our three night stay wonderful.  My wife and children loved this hotel and the swimming pool was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r490512490-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490512490</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Just okay...</t>
+  </si>
+  <si>
+    <t>Not sure if every budget hotel is this way. I'd rather stay in a Motel 6. In all fairness, I really do think most hotels @ $100/night are all pretty much the same. We were traveling for a soccer tournament and we stayed with the team. I wouldn't advise staying more than a night or two. The silver lining was the people working the front desk. They were friendly and professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Not sure if every budget hotel is this way. I'd rather stay in a Motel 6. In all fairness, I really do think most hotels @ $100/night are all pretty much the same. We were traveling for a soccer tournament and we stayed with the team. I wouldn't advise staying more than a night or two. The silver lining was the people working the front desk. They were friendly and professional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r484507455-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484507455</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Over the phone customer service was okay, but once I arrived the service was very good and they accomplished all my requests with great quality and flexibility MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Over the phone customer service was okay, but once I arrived the service was very good and they accomplished all my requests with great quality and flexibility More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r477461160-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477461160</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Very nice place. The parking was secured behind an automatic gate, that you can only get in by room key. Hotel was very clean and the rooms were very nice. Best part is that they have great pillows!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>MikeD77070, Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Very nice place. The parking was secured behind an automatic gate, that you can only get in by room key. Hotel was very clean and the rooms were very nice. Best part is that they have great pillows!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r476186235-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476186235</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Greeted by something unpleasant</t>
+  </si>
+  <si>
+    <t>The front desk lady was pretty quiet with a long face right from the beginning, not even verbally confirming with me the most basic info like the room type or length of my stay, instead she just passed me the reg card to let me look for them by myself. 
+Things even worse after I inquired if there's a chance to have top floor and she switched room for me in the system. She passed me the keys, leaving me standing in the lobby for 10 sec and looking around trying to find the elevator like a fool. So I finally asked her and she casually pointed me to the south hallway. After a long walk to get to the elevator and my longest march ever in a hotel, to my surprise, I found my room was actually located in north half of the building, right across from the north side elevator!! The lobby sits in the center and there are only two elevators taking care of this long building, one in the middle of each half, which means the lady pointed me a completely opposite elevator and tripled my way to my room. The endless hallway truly impressed me. We flew all the way from another country for Rockets' games. I really hope she did this out of nothing else but only carelessness.
+Other than that our room was very clean and wifi was exceptional. Housekeeper opened our door...The front desk lady was pretty quiet with a long face right from the beginning, not even verbally confirming with me the most basic info like the room type or length of my stay, instead she just passed me the reg card to let me look for them by myself. Things even worse after I inquired if there's a chance to have top floor and she switched room for me in the system. She passed me the keys, leaving me standing in the lobby for 10 sec and looking around trying to find the elevator like a fool. So I finally asked her and she casually pointed me to the south hallway. After a long walk to get to the elevator and my longest march ever in a hotel, to my surprise, I found my room was actually located in north half of the building, right across from the north side elevator!! The lobby sits in the center and there are only two elevators taking care of this long building, one in the middle of each half, which means the lady pointed me a completely opposite elevator and tripled my way to my room. The endless hallway truly impressed me. We flew all the way from another country for Rockets' games. I really hope she did this out of nothing else but only carelessness.Other than that our room was very clean and wifi was exceptional. Housekeeper opened our door on our check-out day at 8am when we were still sleeping and woke us up. Luckily our latch was on.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The front desk lady was pretty quiet with a long face right from the beginning, not even verbally confirming with me the most basic info like the room type or length of my stay, instead she just passed me the reg card to let me look for them by myself. 
+Things even worse after I inquired if there's a chance to have top floor and she switched room for me in the system. She passed me the keys, leaving me standing in the lobby for 10 sec and looking around trying to find the elevator like a fool. So I finally asked her and she casually pointed me to the south hallway. After a long walk to get to the elevator and my longest march ever in a hotel, to my surprise, I found my room was actually located in north half of the building, right across from the north side elevator!! The lobby sits in the center and there are only two elevators taking care of this long building, one in the middle of each half, which means the lady pointed me a completely opposite elevator and tripled my way to my room. The endless hallway truly impressed me. We flew all the way from another country for Rockets' games. I really hope she did this out of nothing else but only carelessness.
+Other than that our room was very clean and wifi was exceptional. Housekeeper opened our door...The front desk lady was pretty quiet with a long face right from the beginning, not even verbally confirming with me the most basic info like the room type or length of my stay, instead she just passed me the reg card to let me look for them by myself. Things even worse after I inquired if there's a chance to have top floor and she switched room for me in the system. She passed me the keys, leaving me standing in the lobby for 10 sec and looking around trying to find the elevator like a fool. So I finally asked her and she casually pointed me to the south hallway. After a long walk to get to the elevator and my longest march ever in a hotel, to my surprise, I found my room was actually located in north half of the building, right across from the north side elevator!! The lobby sits in the center and there are only two elevators taking care of this long building, one in the middle of each half, which means the lady pointed me a completely opposite elevator and tripled my way to my room. The endless hallway truly impressed me. We flew all the way from another country for Rockets' games. I really hope she did this out of nothing else but only carelessness.Other than that our room was very clean and wifi was exceptional. Housekeeper opened our door on our check-out day at 8am when we were still sleeping and woke us up. Luckily our latch was on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r460711401-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460711401</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>NIGHTMARE!!!!!!</t>
+  </si>
+  <si>
+    <t>After returning to my room late in the evening I was surprised to see that they gave my room to another guest. When I was finally given access to my room after the guest was asked to leave all of my items that were in my room was gone. When I addressed it with the General Manager he promised that he would get on top of it and call me the following morning. I have not received one phone call from the manager in over two weeks. When I finally spoke to him he said that charges would be credited back to my CC. Not only were my room charges not reversed but I was charged for additional rooms somehow$$$$$$$$ 4,000.00 worth of rooms. Be careful staying here. I would suggest that you pay in cash and never leave your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy O, Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>After returning to my room late in the evening I was surprised to see that they gave my room to another guest. When I was finally given access to my room after the guest was asked to leave all of my items that were in my room was gone. When I addressed it with the General Manager he promised that he would get on top of it and call me the following morning. I have not received one phone call from the manager in over two weeks. When I finally spoke to him he said that charges would be credited back to my CC. Not only were my room charges not reversed but I was charged for additional rooms somehow$$$$$$$$ 4,000.00 worth of rooms. Be careful staying here. I would suggest that you pay in cash and never leave your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r457193844-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457193844</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passing through Houston </t>
+  </si>
+  <si>
+    <t>I won't say there is anything fancy about this hotel, but I gave it a high rating due to its cleanness, friendly staff,  spacious rooms and price. The location is also convenient for nearby shopping,  dining and freeway access.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Geneveve77070, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>I won't say there is anything fancy about this hotel, but I gave it a high rating due to its cleanness, friendly staff,  spacious rooms and price. The location is also convenient for nearby shopping,  dining and freeway access.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r447918819-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447918819</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>A good nights rest</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice at this location. It's next to some apartments that I was worried about being next to when coming to hotel at night. It proved to not be an issue as I never saw a single person in the parking lot at apartments. I felt safe and the rooms were nice. My room had a couple water stains on ceiling and the bathtub had a spot where it could use new caulk. Other than that room was a nice size and they have a restaurant on site. Breakfast may not be included but there is a Dairy Queen you can walk to next door. It was quiet and the beds were comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>MikeD77070, Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice at this location. It's next to some apartments that I was worried about being next to when coming to hotel at night. It proved to not be an issue as I never saw a single person in the parking lot at apartments. I felt safe and the rooms were nice. My room had a couple water stains on ceiling and the bathtub had a spot where it could use new caulk. Other than that room was a nice size and they have a restaurant on site. Breakfast may not be included but there is a Dairy Queen you can walk to next door. It was quiet and the beds were comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r438635583-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438635583</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Highly Recommend!</t>
+  </si>
+  <si>
+    <t>Recently remodelled in a European-modern design. Spacious lobby with a small bar/cafe. Delicious food - baked potato skins, burgers, cobb salad - lots of options. Outstanding, friendly service. Well-appointed rooms w/fridge &amp; microwave. Secure gated parking lot. $79 + taxes for a room w/two queen beds. I'd stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Recently remodelled in a European-modern design. Spacious lobby with a small bar/cafe. Delicious food - baked potato skins, burgers, cobb salad - lots of options. Outstanding, friendly service. Well-appointed rooms w/fridge &amp; microwave. Secure gated parking lot. $79 + taxes for a room w/two queen beds. I'd stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r434339018-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434339018</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Wyndham Garden hotels charge an extra $25.00 per day against your credit card when you check in. When we checked in for a 5 day stay my card was charged an extra $125.00 .  Management explained that was for incidentals and would be credited back a few days after we checked out.  The room with two queen beds was very cramped.  It took 2 days to get a toilet seat problem fixed and that was early evening by the general manager.  When an unauthorized handicapped parking situation was brought to their attention they refused to take any action even though the car sat there for 4 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Wyndham Garden hotels charge an extra $25.00 per day against your credit card when you check in. When we checked in for a 5 day stay my card was charged an extra $125.00 .  Management explained that was for incidentals and would be credited back a few days after we checked out.  The room with two queen beds was very cramped.  It took 2 days to get a toilet seat problem fixed and that was early evening by the general manager.  When an unauthorized handicapped parking situation was brought to their attention they refused to take any action even though the car sat there for 4 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r433809553-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433809553</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Good hotel for a cheap price close to the event we went to</t>
+  </si>
+  <si>
+    <t>Got this hotel for a super good price and it was really close to the event we attended over the weekend. Only complaint was they didn't give us breakfast vouchers and the air conditioning left the floor wet around it. Other than that everything was great! Loved that the couch had a pull out bed!!Would definitely stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Got this hotel for a super good price and it was really close to the event we attended over the weekend. Only complaint was they didn't give us breakfast vouchers and the air conditioning left the floor wet around it. Other than that everything was great! Loved that the couch had a pull out bed!!Would definitely stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r431831927-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431831927</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>While the bed was comfortable and the room spacious, during my three night stay no one came to empty my trash or restock the coffee/tea/creamer. I made three trips to the front desk to get the above items as well as to get Kleenex. I was told housekeeping would bring these items to my room and that never happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>While the bed was comfortable and the room spacious, during my three night stay no one came to empty my trash or restock the coffee/tea/creamer. I made three trips to the front desk to get the above items as well as to get Kleenex. I was told housekeeping would bring these items to my room and that never happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r431519852-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431519852</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for Business purposes.</t>
+  </si>
+  <si>
+    <t>Clean, free breakfast, comfortable beds and pillows. Far away from downtown but good for business. At the front desk they were really helpful.It is a "green" hotel so it is really nice to see their engagement with the environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Clean, free breakfast, comfortable beds and pillows. Far away from downtown but good for business. At the front desk they were really helpful.It is a "green" hotel so it is really nice to see their engagement with the environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r430079838-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430079838</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r424750917-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424750917</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Nonprofit Conference Venue</t>
+  </si>
+  <si>
+    <t>Earlier this month, I had the pleasure of working with Tamara Sandford and the Wyndham Garden Houston Willowbrook. As the conference manager for the organization, I worked one on one with Tamara to ensure that things ran smoothly and received excellent feedback from the attendees about their experience at the property. Up until the day of the event Tamara remained in constant contact with me to make sure that everything was set up for our arriving group. Food, beverage, sleeping rooms and meeting space were all indicated as key returning factors by the conference team and delegates. I look forward to working with Tamara and the Wyndham Garden Willowbrook in the future for other upcoming events. Highly recommend for events, banquets, and conferences.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded October 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2016</t>
+  </si>
+  <si>
+    <t>Earlier this month, I had the pleasure of working with Tamara Sandford and the Wyndham Garden Houston Willowbrook. As the conference manager for the organization, I worked one on one with Tamara to ensure that things ran smoothly and received excellent feedback from the attendees about their experience at the property. Up until the day of the event Tamara remained in constant contact with me to make sure that everything was set up for our arriving group. Food, beverage, sleeping rooms and meeting space were all indicated as key returning factors by the conference team and delegates. I look forward to working with Tamara and the Wyndham Garden Willowbrook in the future for other upcoming events. Highly recommend for events, banquets, and conferences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r420561459-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420561459</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Company Meeting Venue</t>
+  </si>
+  <si>
+    <t>We recently had a company training event at the Wyndham Garden Houston Willowbrook location.  The facilities have recently been renovated, so it felt updated and nice.  The staff is what made the difference as they were very attentive to our needs as the meeting ebbed-and-flowed (not always following the itinerary).  Food was also very good at a very good price.  We were able to order hot meals for the same (or less) as boxed meals from other venues that were shopped.  We will definitely hold another meeting at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>We recently had a company training event at the Wyndham Garden Houston Willowbrook location.  The facilities have recently been renovated, so it felt updated and nice.  The staff is what made the difference as they were very attentive to our needs as the meeting ebbed-and-flowed (not always following the itinerary).  Food was also very good at a very good price.  We were able to order hot meals for the same (or less) as boxed meals from other venues that were shopped.  We will definitely hold another meeting at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r410009743-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410009743</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with super friendly staff</t>
+  </si>
+  <si>
+    <t>We as a company use them all the time and I get nothing but great feedback about their stay at this location.  The breakfast is excellent and the rooms are spacious and clean.I attended the Grand Opening on the 17th Aug and it was spectacular and so much fun.I love what they have done with the décor of the Hotel, the bar and breakfast area is definitely the cherry on the cake.Huge thanks to Tamara and her team for superb work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>We as a company use them all the time and I get nothing but great feedback about their stay at this location.  The breakfast is excellent and the rooms are spacious and clean.I attended the Grand Opening on the 17th Aug and it was spectacular and so much fun.I love what they have done with the décor of the Hotel, the bar and breakfast area is definitely the cherry on the cake.Huge thanks to Tamara and her team for superb work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r400616035-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400616035</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would not recommend </t>
+  </si>
+  <si>
+    <t>Upon entering, the staff was welcoming and the room was nice. However, once we needed something we became an inconvenience to the entire staff. Simple requests such as clean towels, trash removed, dish detergent which they did not have so we requested clean dishes.  Basic daily housekeeping things we had to ask for. We were told they were too busy to get us the clean dishes and asked us to come down to the kitchen area to get them ourselves. The pool and hot tub were both cloudy and didn't appear clean at all. The customer service is very poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Upon entering, the staff was welcoming and the room was nice. However, once we needed something we became an inconvenience to the entire staff. Simple requests such as clean towels, trash removed, dish detergent which they did not have so we requested clean dishes.  Basic daily housekeeping things we had to ask for. We were told they were too busy to get us the clean dishes and asked us to come down to the kitchen area to get them ourselves. The pool and hot tub were both cloudy and didn't appear clean at all. The customer service is very poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r398220826-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398220826</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Good hotel reasonable rates</t>
+  </si>
+  <si>
+    <t>My stay was a last minute decision. The hotel is adequate by all means. The price is very reasonable and my room was clean.Reception this night I checked in clerk was friendly, quick, well mannered and helpful.The bat back made nice Bloody Mary drinks and was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>My stay was a last minute decision. The hotel is adequate by all means. The price is very reasonable and my room was clean.Reception this night I checked in clerk was friendly, quick, well mannered and helpful.The bat back made nice Bloody Mary drinks and was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r398101712-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398101712</t>
+  </si>
+  <si>
+    <t>Awesome customer service (Cori Cato)</t>
+  </si>
+  <si>
+    <t>Cori Cato was super duper helpful. We have a group of athletics coming to the area for the Junior Olypmics and we needed 10 rooms. I contacted Cori and she got to work immediately. She was attentive to our needs and we have many, many changes. She was able to accommodate us still. She went above and beyond she was truly a blessing. She is truly awesome thank you thank you and thank you for your wonderful spirit and customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cori Cato was super duper helpful. We have a group of athletics coming to the area for the Junior Olypmics and we needed 10 rooms. I contacted Cori and she got to work immediately. She was attentive to our needs and we have many, many changes. She was able to accommodate us still. She went above and beyond she was truly a blessing. She is truly awesome thank you thank you and thank you for your wonderful spirit and customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r392332258-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392332258</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Needs Work...</t>
+  </si>
+  <si>
+    <t>There for business. Went to check in at 3:30p and there was no one behind the desk. She left to get a guest some change. My point is that she was the only one there and we had to wait about 10 minutes to check in. Finally got a room. The carpet was soaked with water around the AC unit. Went back down and took an additional 10 minutes just to address the issue. I got a new room. 
+The placed was nice and clean. The AC unit was very loud. You had to turn the tv up just to hear it. It has a microwave and fridge. The fridge was dirty. They gave you two bottles of water, which was nice. They have a single cup coffee maker, but missing the coffee cups.
+I had the breakfast the following morning down in the lobby. Everything was good and seemed fresh. The food was much better than the typical breakfast buffet (bacon, sausage, eggs, potatoes, grits, breads...). Nice fresh fruit selection. They do not have food there in the evening, so you will need to look elsewhere. That was extremely inconvenient for some of us.
+I had a room on the second floor and the ice machine was broken, so you had to go downstairs. All of the button labels on the elevators were removed or broken. Not that you couldn't figure it out, just odd... Details! 
+The main reason...There for business. Went to check in at 3:30p and there was no one behind the desk. She left to get a guest some change. My point is that she was the only one there and we had to wait about 10 minutes to check in. Finally got a room. The carpet was soaked with water around the AC unit. Went back down and took an additional 10 minutes just to address the issue. I got a new room. The placed was nice and clean. The AC unit was very loud. You had to turn the tv up just to hear it. It has a microwave and fridge. The fridge was dirty. They gave you two bottles of water, which was nice. They have a single cup coffee maker, but missing the coffee cups.I had the breakfast the following morning down in the lobby. Everything was good and seemed fresh. The food was much better than the typical breakfast buffet (bacon, sausage, eggs, potatoes, grits, breads...). Nice fresh fruit selection. They do not have food there in the evening, so you will need to look elsewhere. That was extremely inconvenient for some of us.I had a room on the second floor and the ice machine was broken, so you had to go downstairs. All of the button labels on the elevators were removed or broken. Not that you couldn't figure it out, just odd... Details! The main reason for the rating is that I found out later that they checked a colleague of mine in the exact same room (same day) with the wet carpet they tried to give me. Really? Why didn't they take that room out of service until it was repaired? They have signs stating they are "under construction", but this is a management issue...If I had my choice, I would stay elsewhere until they get it together.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>There for business. Went to check in at 3:30p and there was no one behind the desk. She left to get a guest some change. My point is that she was the only one there and we had to wait about 10 minutes to check in. Finally got a room. The carpet was soaked with water around the AC unit. Went back down and took an additional 10 minutes just to address the issue. I got a new room. 
+The placed was nice and clean. The AC unit was very loud. You had to turn the tv up just to hear it. It has a microwave and fridge. The fridge was dirty. They gave you two bottles of water, which was nice. They have a single cup coffee maker, but missing the coffee cups.
+I had the breakfast the following morning down in the lobby. Everything was good and seemed fresh. The food was much better than the typical breakfast buffet (bacon, sausage, eggs, potatoes, grits, breads...). Nice fresh fruit selection. They do not have food there in the evening, so you will need to look elsewhere. That was extremely inconvenient for some of us.
+I had a room on the second floor and the ice machine was broken, so you had to go downstairs. All of the button labels on the elevators were removed or broken. Not that you couldn't figure it out, just odd... Details! 
+The main reason...There for business. Went to check in at 3:30p and there was no one behind the desk. She left to get a guest some change. My point is that she was the only one there and we had to wait about 10 minutes to check in. Finally got a room. The carpet was soaked with water around the AC unit. Went back down and took an additional 10 minutes just to address the issue. I got a new room. The placed was nice and clean. The AC unit was very loud. You had to turn the tv up just to hear it. It has a microwave and fridge. The fridge was dirty. They gave you two bottles of water, which was nice. They have a single cup coffee maker, but missing the coffee cups.I had the breakfast the following morning down in the lobby. Everything was good and seemed fresh. The food was much better than the typical breakfast buffet (bacon, sausage, eggs, potatoes, grits, breads...). Nice fresh fruit selection. They do not have food there in the evening, so you will need to look elsewhere. That was extremely inconvenient for some of us.I had a room on the second floor and the ice machine was broken, so you had to go downstairs. All of the button labels on the elevators were removed or broken. Not that you couldn't figure it out, just odd... Details! The main reason for the rating is that I found out later that they checked a colleague of mine in the exact same room (same day) with the wet carpet they tried to give me. Really? Why didn't they take that room out of service until it was repaired? They have signs stating they are "under construction", but this is a management issue...If I had my choice, I would stay elsewhere until they get it together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r392236589-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392236589</t>
+  </si>
+  <si>
+    <t>Front Desk Personality</t>
+  </si>
+  <si>
+    <t>We arrived in Houston after 3 days on the road.  I was hot and tired and dressed in traveling clothes—shorts and a baggy T-shirt.  The desk person was not as hospitable as could be—I think it was the beginning of her shift.  Anyway, my plans when I made the reservation in May I told the scheduler that I had 4 adults, 1 child, and TWO SERVICE DOGS. I said  that if it is a problem I will find another hotel. Then I am told with we don't accept pets and there is NO SMOKING (that was funny because right outside the front entrance it said no smoking but that is where we saw workers and patrons smoking).  I handed her the original paper work that was done on the phone and the confirmation I received.  She had seemed to have difficulty understanding the paper.  Anyway, we get through that and she does give me a room on the ground floor.  I was thankful because it made it easier for the SERVICE DOGS.  Before we left to check out the room I was told that there is NO complimentary breakfast and I probably wouldn't need or want the complimentary drink vouchers.  Not a game changer yet, because we don't smoke or drink—I guess we are just no fun and boring (my comment) she did laugh at that.  I was tired and accepted the room but I sure will do a better...We arrived in Houston after 3 days on the road.  I was hot and tired and dressed in traveling clothes—shorts and a baggy T-shirt.  The desk person was not as hospitable as could be—I think it was the beginning of her shift.  Anyway, my plans when I made the reservation in May I told the scheduler that I had 4 adults, 1 child, and TWO SERVICE DOGS. I said  that if it is a problem I will find another hotel. Then I am told with we don't accept pets and there is NO SMOKING (that was funny because right outside the front entrance it said no smoking but that is where we saw workers and patrons smoking).  I handed her the original paper work that was done on the phone and the confirmation I received.  She had seemed to have difficulty understanding the paper.  Anyway, we get through that and she does give me a room on the ground floor.  I was thankful because it made it easier for the SERVICE DOGS.  Before we left to check out the room I was told that there is NO complimentary breakfast and I probably wouldn't need or want the complimentary drink vouchers.  Not a game changer yet, because we don't smoke or drink—I guess we are just no fun and boring (my comment) she did laugh at that.  I was tired and accepted the room but I sure will do a better job next time.  The room was not handicap friendly—good thing we carried our own extended toilet seat, There were never enough towels, had to ask to have the trash taken out every day (one day I even bagged it and set it out in the bathroom doorway, there were no handicap bars in the bathroom—they had been removed,  They pool had a film on it and there was no way I was going to swim in there.  My first time at Wyndham Garden and it is my last time.  The location was convenient to my son's family and my daughter's family but that is not enough for me and my family to stay there again.  I hope the renovated side is better than what we got.  Maybe it would have made a difference if my husband a pastor had checked us in, but he has a heart condition and had to remain at my son's house because of the heat and being exhausted from the trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Chris V, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>We arrived in Houston after 3 days on the road.  I was hot and tired and dressed in traveling clothes—shorts and a baggy T-shirt.  The desk person was not as hospitable as could be—I think it was the beginning of her shift.  Anyway, my plans when I made the reservation in May I told the scheduler that I had 4 adults, 1 child, and TWO SERVICE DOGS. I said  that if it is a problem I will find another hotel. Then I am told with we don't accept pets and there is NO SMOKING (that was funny because right outside the front entrance it said no smoking but that is where we saw workers and patrons smoking).  I handed her the original paper work that was done on the phone and the confirmation I received.  She had seemed to have difficulty understanding the paper.  Anyway, we get through that and she does give me a room on the ground floor.  I was thankful because it made it easier for the SERVICE DOGS.  Before we left to check out the room I was told that there is NO complimentary breakfast and I probably wouldn't need or want the complimentary drink vouchers.  Not a game changer yet, because we don't smoke or drink—I guess we are just no fun and boring (my comment) she did laugh at that.  I was tired and accepted the room but I sure will do a better...We arrived in Houston after 3 days on the road.  I was hot and tired and dressed in traveling clothes—shorts and a baggy T-shirt.  The desk person was not as hospitable as could be—I think it was the beginning of her shift.  Anyway, my plans when I made the reservation in May I told the scheduler that I had 4 adults, 1 child, and TWO SERVICE DOGS. I said  that if it is a problem I will find another hotel. Then I am told with we don't accept pets and there is NO SMOKING (that was funny because right outside the front entrance it said no smoking but that is where we saw workers and patrons smoking).  I handed her the original paper work that was done on the phone and the confirmation I received.  She had seemed to have difficulty understanding the paper.  Anyway, we get through that and she does give me a room on the ground floor.  I was thankful because it made it easier for the SERVICE DOGS.  Before we left to check out the room I was told that there is NO complimentary breakfast and I probably wouldn't need or want the complimentary drink vouchers.  Not a game changer yet, because we don't smoke or drink—I guess we are just no fun and boring (my comment) she did laugh at that.  I was tired and accepted the room but I sure will do a better job next time.  The room was not handicap friendly—good thing we carried our own extended toilet seat, There were never enough towels, had to ask to have the trash taken out every day (one day I even bagged it and set it out in the bathroom doorway, there were no handicap bars in the bathroom—they had been removed,  They pool had a film on it and there was no way I was going to swim in there.  My first time at Wyndham Garden and it is my last time.  The location was convenient to my son's family and my daughter's family but that is not enough for me and my family to stay there again.  I hope the renovated side is better than what we got.  Maybe it would have made a difference if my husband a pastor had checked us in, but he has a heart condition and had to remain at my son's house because of the heat and being exhausted from the trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r387831406-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387831406</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r379133346-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379133346</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Excellent water pressure, but mold around water fixtures</t>
+  </si>
+  <si>
+    <t>Excellent water pressure in the showers , but mold around the bath and bath fixtures.  Breakfast not open until 7:30am MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Excellent water pressure in the showers , but mold around the bath and bath fixtures.  Breakfast not open until 7:30am More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r374519005-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374519005</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Team Meeting for Advantage Solution</t>
+  </si>
+  <si>
+    <t>Cori Cato did a fantastic job setting up our company meeting, the entire staff was extremely nice and helpful Francisco (our server) was the BEST!!  I would recommend the Wyndham Garden to any company hosting a meeting. I will be setting up my next meeting the fall here.Thanks again Cori!JudyMoreShow less</t>
+  </si>
+  <si>
+    <t>Travis S, Director of Sales at Wyndham Garden Houston Willowbrook, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Cori Cato did a fantastic job setting up our company meeting, the entire staff was extremely nice and helpful Francisco (our server) was the BEST!!  I would recommend the Wyndham Garden to any company hosting a meeting. I will be setting up my next meeting the fall here.Thanks again Cori!JudyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r371754547-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371754547</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Mother's Day Soiree Event</t>
+  </si>
+  <si>
+    <t>I worked with Cori Cato at the Wyndam in Willowbrook. She took the time to find out what I needed and gave it to me. She assisted me throughout the entire process. She responded to ever email and telephone call in record timing. The professionalism and caring that she takes with her clients is second to none!!! So for your next event call Cori, she will take great care of you!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Wyndham Garden Houston Willowbrook, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>I worked with Cori Cato at the Wyndam in Willowbrook. She took the time to find out what I needed and gave it to me. She assisted me throughout the entire process. She responded to ever email and telephone call in record timing. The professionalism and caring that she takes with her clients is second to none!!! So for your next event call Cori, she will take great care of you!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r369523318-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369523318</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Family Wedding</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for our family to stay in. The rooms were ok ... You can tell the hotel is under renovation, you would think they would have replaced the carpet by now, hopefully that will happen soon. Staff friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Wyndham Garden Houston Willowbrook, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for our family to stay in. The rooms were ok ... You can tell the hotel is under renovation, you would think they would have replaced the carpet by now, hopefully that will happen soon. Staff friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r366558325-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366558325</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Great staying</t>
+  </si>
+  <si>
+    <t>My family and I really enjoyed ourselves there. We requested to stay an extra night and the sales team gave us a great deal and they were very friendly. The morning breakfast was great. The kids loves the pool and we all loved the beds. The one thing that needed improvement was the whole hotel except the rooms were really warm. MoreShow less</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>My family and I really enjoyed ourselves there. We requested to stay an extra night and the sales team gave us a great deal and they were very friendly. The morning breakfast was great. The kids loves the pool and we all loved the beds. The one thing that needed improvement was the whole hotel except the rooms were really warm. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r363287188-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363287188</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>stay in houston texas</t>
+  </si>
+  <si>
+    <t>rooms were very nice and staff was excellent.  would like to see a sitting area outside because you have an indoor pool  MoreShow less</t>
+  </si>
+  <si>
+    <t>rooms were very nice and staff was excellent.  would like to see a sitting area outside because you have an indoor pool  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r355647555-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355647555</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Great and comfortable stay.</t>
+  </si>
+  <si>
+    <t>I was staying in the Houston area and found this place on Priceline. The price was amazing and the hotel itself is located perfectly. It's nestled behind a line of trees and within walking distance of shops, places to eat and things to do. It's not far from the highway but it's relatively quiet. The rooms are spacious, clean and comfortable. You'll love the beds. Breakfast was great with a hot selection to go along with traditional continental breakfast staples. I read some reviews complaining about the internet but I had no problems with it. It does give you a choice for standard access or to pay for more bandwidth, I chose the former. Can't think of any con's - was only a 2 day stay but enjoyed it thoroughly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>I was staying in the Houston area and found this place on Priceline. The price was amazing and the hotel itself is located perfectly. It's nestled behind a line of trees and within walking distance of shops, places to eat and things to do. It's not far from the highway but it's relatively quiet. The rooms are spacious, clean and comfortable. You'll love the beds. Breakfast was great with a hot selection to go along with traditional continental breakfast staples. I read some reviews complaining about the internet but I had no problems with it. It does give you a choice for standard access or to pay for more bandwidth, I chose the former. Can't think of any con's - was only a 2 day stay but enjoyed it thoroughly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r353167762-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353167762</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>I was surprised that the hotel was going through a remolder.. It didn't make a difference because everyone on the staff made my family feel at home. Our family had a number of rooms and I would like to thank the hotel for the excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>I was surprised that the hotel was going through a remolder.. It didn't make a difference because everyone on the staff made my family feel at home. Our family had a number of rooms and I would like to thank the hotel for the excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r352639454-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352639454</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r344865342-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344865342</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Had a one night business trip and enjoyed the stay.  Staff was friendly.  Bed was comfy and room was clean and updated.  Internet was fast and dependable.  Indoor pool and spa were very nice.  Many choices of restaurants and shopping in this area.  Only negative is at least as of our stay hotel is under renovation.  Tile was being removed from check in area.  I'm sure very soon it will be complete and very nice.  I would return and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Had a one night business trip and enjoyed the stay.  Staff was friendly.  Bed was comfy and room was clean and updated.  Internet was fast and dependable.  Indoor pool and spa were very nice.  Many choices of restaurants and shopping in this area.  Only negative is at least as of our stay hotel is under renovation.  Tile was being removed from check in area.  I'm sure very soon it will be complete and very nice.  I would return and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r316846487-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316846487</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Good freakfast choices but the staff was rude</t>
+  </si>
+  <si>
+    <t>The first room was clean but had to change it because my upstairs neighboor had construction noises and had to complain , ended up having a complimentary breakfast. The food was very good, hot breakfast great options for healthy fresh fruit choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>The first room was clean but had to change it because my upstairs neighboor had construction noises and had to complain , ended up having a complimentary breakfast. The food was very good, hot breakfast great options for healthy fresh fruit choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r301516264-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301516264</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Solid hotel, no complaints</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights earlier this summer. The bed was great, the extra space in our room was awesome. Had a mixup with check out time on my end, and the front desk staff was very understanding of it, So that was a great accommodation! Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights earlier this summer. The bed was great, the extra space in our room was awesome. Had a mixup with check out time on my end, and the front desk staff was very understanding of it, So that was a great accommodation! Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r277870021-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277870021</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Business Stay</t>
+  </si>
+  <si>
+    <t>This hotel was nice and clean during a business trip in May 2015. The hotel was obviously a little older but was not nasty in anyway. All the employees had the proper attitude towards guest. The hotel contains a full bar in the lobby which was convenient, along with the full restaurant. The meal I ate was excellent. The hotel is nothing special but also very nice with nothing negativeMoreShow less</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was nice and clean during a business trip in May 2015. The hotel was obviously a little older but was not nasty in anyway. All the employees had the proper attitude towards guest. The hotel contains a full bar in the lobby which was convenient, along with the full restaurant. The meal I ate was excellent. The hotel is nothing special but also very nice with nothing negativeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r272154287-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272154287</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Needs a revamp</t>
+  </si>
+  <si>
+    <t>Stayed here for over 3-1/2 weeks, handy for where I was working 5 minutes by car. First off it took 3 rooms to get one that had a secure safe in the room, and a wifi signal, and away from the Highway noise. I then had an even bigger problem in that the hotel charged for my entire stay the day I checked in and it appeared on my credit card, that is a large chunk of change, before I had even submitted my expenses. I also stayed an extra day and when presented with the bill I had to get clarification that I had not been charged again, even they were unsure.
+I also had continual problems with my room card key, kept having to get it re-coded, and one time it would not let me and when I went to enquire seems because I was having to stay an extra day until I paid for this it would not let me in, a few expletives later and the hotel fixed that one. 
+The free wifi was frankly pathetic, kept dropping out, bad signal and if you have too many users you could not get on, really was appalling.
+One day I have a companion in my shower, which turned out to be a cockroach, my size 9 left shoe took care of the uninvited guest.
+The room itself was clean, and the staff were always friendly, the hotel...Stayed here for over 3-1/2 weeks, handy for where I was working 5 minutes by car. First off it took 3 rooms to get one that had a secure safe in the room, and a wifi signal, and away from the Highway noise. I then had an even bigger problem in that the hotel charged for my entire stay the day I checked in and it appeared on my credit card, that is a large chunk of change, before I had even submitted my expenses. I also stayed an extra day and when presented with the bill I had to get clarification that I had not been charged again, even they were unsure.I also had continual problems with my room card key, kept having to get it re-coded, and one time it would not let me and when I went to enquire seems because I was having to stay an extra day until I paid for this it would not let me in, a few expletives later and the hotel fixed that one. The free wifi was frankly pathetic, kept dropping out, bad signal and if you have too many users you could not get on, really was appalling.One day I have a companion in my shower, which turned out to be a cockroach, my size 9 left shoe took care of the uninvited guest.The room itself was clean, and the staff were always friendly, the hotel itself is in desperate need of a revamp, the colours are dull, and it looks very dated, it has that musky old smell about it and the furniture if from the 80's. I would definitely not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>cody o, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for over 3-1/2 weeks, handy for where I was working 5 minutes by car. First off it took 3 rooms to get one that had a secure safe in the room, and a wifi signal, and away from the Highway noise. I then had an even bigger problem in that the hotel charged for my entire stay the day I checked in and it appeared on my credit card, that is a large chunk of change, before I had even submitted my expenses. I also stayed an extra day and when presented with the bill I had to get clarification that I had not been charged again, even they were unsure.
+I also had continual problems with my room card key, kept having to get it re-coded, and one time it would not let me and when I went to enquire seems because I was having to stay an extra day until I paid for this it would not let me in, a few expletives later and the hotel fixed that one. 
+The free wifi was frankly pathetic, kept dropping out, bad signal and if you have too many users you could not get on, really was appalling.
+One day I have a companion in my shower, which turned out to be a cockroach, my size 9 left shoe took care of the uninvited guest.
+The room itself was clean, and the staff were always friendly, the hotel...Stayed here for over 3-1/2 weeks, handy for where I was working 5 minutes by car. First off it took 3 rooms to get one that had a secure safe in the room, and a wifi signal, and away from the Highway noise. I then had an even bigger problem in that the hotel charged for my entire stay the day I checked in and it appeared on my credit card, that is a large chunk of change, before I had even submitted my expenses. I also stayed an extra day and when presented with the bill I had to get clarification that I had not been charged again, even they were unsure.I also had continual problems with my room card key, kept having to get it re-coded, and one time it would not let me and when I went to enquire seems because I was having to stay an extra day until I paid for this it would not let me in, a few expletives later and the hotel fixed that one. The free wifi was frankly pathetic, kept dropping out, bad signal and if you have too many users you could not get on, really was appalling.One day I have a companion in my shower, which turned out to be a cockroach, my size 9 left shoe took care of the uninvited guest.The room itself was clean, and the staff were always friendly, the hotel itself is in desperate need of a revamp, the colours are dull, and it looks very dated, it has that musky old smell about it and the furniture if from the 80's. I would definitely not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r270470908-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270470908</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Comfy bed, good pillows, quiet room</t>
+  </si>
+  <si>
+    <t>Nice-sized king room w/sleeper sofa, fridge, microwave, &amp; coffee maker.  My traveling companions and I all slept very well and agreed that the beds were quite comfortable, with two firm pillows and two soft pillows on each bed.  Room overlooked highway, but was not noisy.  Breakfast buffet for $10 or order off menu.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice-sized king room w/sleeper sofa, fridge, microwave, &amp; coffee maker.  My traveling companions and I all slept very well and agreed that the beds were quite comfortable, with two firm pillows and two soft pillows on each bed.  Room overlooked highway, but was not noisy.  Breakfast buffet for $10 or order off menu.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r240784664-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240784664</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>There are better options</t>
+  </si>
+  <si>
+    <t>Houston is busy and hotels fill up even with high prices. I paid $234+ taxes for one night here and likely won't be back given better options nearby (I recommend the Hilton Garden Inn nearby).Service was fine but the place is simply noisy. The refrigerator in the room sounded like Diesel engine, the fan in the bathroom (that turns on with the light) was like a two cycle engine, I could hear people talking clearly from the next room, heard someone else's smoke detector, and who knows what else. Unplugging the fridge was the only thing I could really control.  In the morning 3 maids hung outside the door talking for no less than 15-20 minutes. Basically all these little things added up to a lessor experience. It's not a bad hotel by any means but not up for competition.The room seemed clean and comfortable. Location is decent. But overall this place seems made on the cheap. The Hilton Garden Inn nearby surpasses any quality standard of this hotel whether for facility, bed, pillows, bathroom, noise, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded December 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2014</t>
+  </si>
+  <si>
+    <t>Houston is busy and hotels fill up even with high prices. I paid $234+ taxes for one night here and likely won't be back given better options nearby (I recommend the Hilton Garden Inn nearby).Service was fine but the place is simply noisy. The refrigerator in the room sounded like Diesel engine, the fan in the bathroom (that turns on with the light) was like a two cycle engine, I could hear people talking clearly from the next room, heard someone else's smoke detector, and who knows what else. Unplugging the fridge was the only thing I could really control.  In the morning 3 maids hung outside the door talking for no less than 15-20 minutes. Basically all these little things added up to a lessor experience. It's not a bad hotel by any means but not up for competition.The room seemed clean and comfortable. Location is decent. But overall this place seems made on the cheap. The Hilton Garden Inn nearby surpasses any quality standard of this hotel whether for facility, bed, pillows, bathroom, noise, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r233528852-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233528852</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Clean, but broken. Quiet, but loud. Hard to put a label to this hotel.</t>
+  </si>
+  <si>
+    <t>Was in town for business and put up in this hotel for two nights. 
+I stayed in a room with 2 queen beds (was just me, I guess they didn't have anything else available)
+The hotel itself was not completely up to date, but it wasn't way out of date either. 
+THE GREAT:
+The bed was extremely comfortable. 
+The water pressure was beyond awesome. Seems to be a difficult find in hotels today.
+The hotel and room were very clean
+No noise from outside the hotel
+THE BAD:
+For being such a clean hotel, I was surprised to find a number of things glaringly not kept up well or at all, not to mention staff that were problematic and downright nasty.
+General:
+The WiFi is crap. Slow as anything. Ended up tethering my phone for a lot of stuff.
+There is a large tile in the elevator that is extremely loose.
+The 3f button in the elevator does not stay lit
+A number of descriptors for elevator buttons are missing or worn badly
+The elevator has a good amount of scratches and writing-scratch-style vandalism.
+The elevator was out of order on Wednesday night, but there was only an out of order sign on the first floor. People from other floors could still call it and use it.
+You can easily see where poor patch jobs on the walls were done (example is by the elevator, 3rd floor)
+Room:
+Door wouldn't...Was in town for business and put up in this hotel for two nights. I stayed in a room with 2 queen beds (was just me, I guess they didn't have anything else available)The hotel itself was not completely up to date, but it wasn't way out of date either. THE GREAT:The bed was extremely comfortable. The water pressure was beyond awesome. Seems to be a difficult find in hotels today.The hotel and room were very cleanNo noise from outside the hotelTHE BAD:For being such a clean hotel, I was surprised to find a number of things glaringly not kept up well or at all, not to mention staff that were problematic and downright nasty.General:The WiFi is crap. Slow as anything. Ended up tethering my phone for a lot of stuff.There is a large tile in the elevator that is extremely loose.The 3f button in the elevator does not stay litA number of descriptors for elevator buttons are missing or worn badlyThe elevator has a good amount of scratches and writing-scratch-style vandalism.The elevator was out of order on Wednesday night, but there was only an out of order sign on the first floor. People from other floors could still call it and use it.You can easily see where poor patch jobs on the walls were done (example is by the elevator, 3rd floor)Room:Door wouldn't shut by itself and was very hard to get into. Handle appears to be broken. (pic attached)Random plaster or paint on the wall in the bathroom (over wallpaper)Air conditioner grill was falling off and wouldn't reattach in the roomYou had to rig the curtains to not block any of the AC or it wouldn't get to the rest of the room.AC unit was very loud some times, not as loud others. Hard to get accustomed to.One of the lamps was plugged into the wall in such a way to be a big fire hazard (I unplugged it and left it unplugged, it was bent tight and at a nasty angle with the bed shoved up against it.The lamp on the table between the beds was falling apart. The bathroom fan was nasty loud.Staff:Twice in the evening (around 7) housekeepers tried to enter my room. I had it locked and the swing lock too, but twice they tried to get in. When I went to the hall, they started saying something to me in spanish, then pointed and laughed. My first morning I was leaving my room to visit the company I was visiting. A housekeeper was knocking on the door next to mine. Not a typical "Knock knock knock HOUSEKEEPING" but a "knockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknock" with housekeeping thrown in once in a while. The guest came to the door and the lady said "You should be checked out" to which the guest replied "I will be shortly" and shut the door. The lady then exclaimed "Stupid Idiot". The guest didn't hear it, but I told him later. He was visiting the same company as me. By the way, this was at 815 in the morning.THINGS THAT LEFT ME SAYING "HUH"?In the room there is a small card on the desk that tells you how to connect (in basic terms) to the wired or wifi. The card had clearly not been updated in at least 5 years though, as the wifi directions were something like this:1- Turn off your computer2- Plug in your wireless device to the cardbus adapter on your laptop3- Turn your computer on4- Connect to the network given to you by the front desk5- Enter the username and password given to you by the front desk1, 2, 3 are pretty much no longer relevant. All laptops nowadays have wireless built in. Heck even 5 years ago it was hard to find one that wasn't built in. No turning off/on required.Housekeepers didn't speak almost any english. I had to ask 5 where the ice machine was before I was told where to look (they were wrong by the way).When I checked out this morning at 345, there was nobody at the desk. Just a bell. I had to hit it several times across about 5 minutes before someone came out. He was tired-eyed like he had been sleeping in the back. Sorry, but any hotel I stay at I don't expect to have to wait for some sleeping desk clerk. It's not a motel 6 or outside-access place.Front desk staff couldn't recommend a good pizza place. They said  "Oh we just have the usual chains". I didn't believe it and actually found an awesome local place (that'll be in its own review). Staff should be intimately familiar with locally-owned private (chain or otherwise) places to eat that aren't all over the country. Pizza Hut and Dominoes just don't cut it.-----------------------------A note: If you have a CPAP machine, bring an extension cord so you can place it somewhere easy to use. They didn't have anything and I had to borrow one from the company I was visiting. I'd stay again, but it wouldn't be my first choice. Its hard to describe the place, but "incredibly average" would have to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded October 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2014</t>
+  </si>
+  <si>
+    <t>Was in town for business and put up in this hotel for two nights. 
+I stayed in a room with 2 queen beds (was just me, I guess they didn't have anything else available)
+The hotel itself was not completely up to date, but it wasn't way out of date either. 
+THE GREAT:
+The bed was extremely comfortable. 
+The water pressure was beyond awesome. Seems to be a difficult find in hotels today.
+The hotel and room were very clean
+No noise from outside the hotel
+THE BAD:
+For being such a clean hotel, I was surprised to find a number of things glaringly not kept up well or at all, not to mention staff that were problematic and downright nasty.
+General:
+The WiFi is crap. Slow as anything. Ended up tethering my phone for a lot of stuff.
+There is a large tile in the elevator that is extremely loose.
+The 3f button in the elevator does not stay lit
+A number of descriptors for elevator buttons are missing or worn badly
+The elevator has a good amount of scratches and writing-scratch-style vandalism.
+The elevator was out of order on Wednesday night, but there was only an out of order sign on the first floor. People from other floors could still call it and use it.
+You can easily see where poor patch jobs on the walls were done (example is by the elevator, 3rd floor)
+Room:
+Door wouldn't...Was in town for business and put up in this hotel for two nights. I stayed in a room with 2 queen beds (was just me, I guess they didn't have anything else available)The hotel itself was not completely up to date, but it wasn't way out of date either. THE GREAT:The bed was extremely comfortable. The water pressure was beyond awesome. Seems to be a difficult find in hotels today.The hotel and room were very cleanNo noise from outside the hotelTHE BAD:For being such a clean hotel, I was surprised to find a number of things glaringly not kept up well or at all, not to mention staff that were problematic and downright nasty.General:The WiFi is crap. Slow as anything. Ended up tethering my phone for a lot of stuff.There is a large tile in the elevator that is extremely loose.The 3f button in the elevator does not stay litA number of descriptors for elevator buttons are missing or worn badlyThe elevator has a good amount of scratches and writing-scratch-style vandalism.The elevator was out of order on Wednesday night, but there was only an out of order sign on the first floor. People from other floors could still call it and use it.You can easily see where poor patch jobs on the walls were done (example is by the elevator, 3rd floor)Room:Door wouldn't shut by itself and was very hard to get into. Handle appears to be broken. (pic attached)Random plaster or paint on the wall in the bathroom (over wallpaper)Air conditioner grill was falling off and wouldn't reattach in the roomYou had to rig the curtains to not block any of the AC or it wouldn't get to the rest of the room.AC unit was very loud some times, not as loud others. Hard to get accustomed to.One of the lamps was plugged into the wall in such a way to be a big fire hazard (I unplugged it and left it unplugged, it was bent tight and at a nasty angle with the bed shoved up against it.The lamp on the table between the beds was falling apart. The bathroom fan was nasty loud.Staff:Twice in the evening (around 7) housekeepers tried to enter my room. I had it locked and the swing lock too, but twice they tried to get in. When I went to the hall, they started saying something to me in spanish, then pointed and laughed. My first morning I was leaving my room to visit the company I was visiting. A housekeeper was knocking on the door next to mine. Not a typical "Knock knock knock HOUSEKEEPING" but a "knockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknockknock" with housekeeping thrown in once in a while. The guest came to the door and the lady said "You should be checked out" to which the guest replied "I will be shortly" and shut the door. The lady then exclaimed "Stupid Idiot". The guest didn't hear it, but I told him later. He was visiting the same company as me. By the way, this was at 815 in the morning.THINGS THAT LEFT ME SAYING "HUH"?In the room there is a small card on the desk that tells you how to connect (in basic terms) to the wired or wifi. The card had clearly not been updated in at least 5 years though, as the wifi directions were something like this:1- Turn off your computer2- Plug in your wireless device to the cardbus adapter on your laptop3- Turn your computer on4- Connect to the network given to you by the front desk5- Enter the username and password given to you by the front desk1, 2, 3 are pretty much no longer relevant. All laptops nowadays have wireless built in. Heck even 5 years ago it was hard to find one that wasn't built in. No turning off/on required.Housekeepers didn't speak almost any english. I had to ask 5 where the ice machine was before I was told where to look (they were wrong by the way).When I checked out this morning at 345, there was nobody at the desk. Just a bell. I had to hit it several times across about 5 minutes before someone came out. He was tired-eyed like he had been sleeping in the back. Sorry, but any hotel I stay at I don't expect to have to wait for some sleeping desk clerk. It's not a motel 6 or outside-access place.Front desk staff couldn't recommend a good pizza place. They said  "Oh we just have the usual chains". I didn't believe it and actually found an awesome local place (that'll be in its own review). Staff should be intimately familiar with locally-owned private (chain or otherwise) places to eat that aren't all over the country. Pizza Hut and Dominoes just don't cut it.-----------------------------A note: If you have a CPAP machine, bring an extension cord so you can place it somewhere easy to use. They didn't have anything and I had to borrow one from the company I was visiting. I'd stay again, but it wouldn't be my first choice. Its hard to describe the place, but "incredibly average" would have to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r223467364-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223467364</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Business trip.....very average</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights on business trip.  There is not much great and not much bad to write about this place.  Average just a hotel nothing more.  The rooms were average and clean.  Slight odor not sure what kind of musty.Breakfast buffet was over priced for what you got.  Service not great.Onsite bar was ok average selection.  I like craft beers but none to be found.internet was ok slightly better than dialup.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights on business trip.  There is not much great and not much bad to write about this place.  Average just a hotel nothing more.  The rooms were average and clean.  Slight odor not sure what kind of musty.Breakfast buffet was over priced for what you got.  Service not great.Onsite bar was ok average selection.  I like craft beers but none to be found.internet was ok slightly better than dialup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r203132871-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203132871</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Unspectacular</t>
+  </si>
+  <si>
+    <t>A very loud and annoying air con unit in the room, makes it impossible to sleep.  Breakfast service slow, front desk people pretty friendly.  Not much special about this place, a pretty nondescript property right off the highway.  All in all, you get what you pay for...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>A very loud and annoying air con unit in the room, makes it impossible to sleep.  Breakfast service slow, front desk people pretty friendly.  Not much special about this place, a pretty nondescript property right off the highway.  All in all, you get what you pay for...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r198972074-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198972074</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Breakfast is OK. Bed is comfortable, room cleaning is OK and that is pretty much it. Gym is poorly equiped with worn out machines. Pool and hot tub water is dirty and rieks with chlorine, bar service is OK if you have the time to wait for it. So if you only need to sleep there it's OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Breakfast is OK. Bed is comfortable, room cleaning is OK and that is pretty much it. Gym is poorly equiped with worn out machines. Pool and hot tub water is dirty and rieks with chlorine, bar service is OK if you have the time to wait for it. So if you only need to sleep there it's OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r196817490-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196817490</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Smaller than most.</t>
+  </si>
+  <si>
+    <t>We stayed one night for a family wedding nearby. We rented a suite, that was smaller than most. It had two double beds &amp; sleeper sofa with one tv. I requested bedding for the sofa &amp; was greatly surprised when a roll away bed was brought to our room, at no extra charge. The pool was on small side but, had a hottub! Breakfast area was smaller than most. The free breakfast was overall good. My only complaint was it ended at 9:30 on a Sunday morning &amp; it was daylight savings time~we were unaware of the time it ended. Free hot coffee all day is nice. The room was clean. Free bottled water from the front desk by request was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night for a family wedding nearby. We rented a suite, that was smaller than most. It had two double beds &amp; sleeper sofa with one tv. I requested bedding for the sofa &amp; was greatly surprised when a roll away bed was brought to our room, at no extra charge. The pool was on small side but, had a hottub! Breakfast area was smaller than most. The free breakfast was overall good. My only complaint was it ended at 9:30 on a Sunday morning &amp; it was daylight savings time~we were unaware of the time it ended. Free hot coffee all day is nice. The room was clean. Free bottled water from the front desk by request was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r186238791-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186238791</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Different Standard</t>
+  </si>
+  <si>
+    <t>I found this particular Holiday Inn,has an inferior standard than the Holiday Inn chain of Hotels in Europe. The general decor is rather gloomy, although the rooms are big and well furnished.Breakfast is mediocre and resembles more the breakfast of  much inferior hotels.Selection of TV channels is limited and only contains American new network, no BBC, Sky or Euro News.Price paid was rather high for this standard. I must say that the staff are very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded December 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2013</t>
+  </si>
+  <si>
+    <t>I found this particular Holiday Inn,has an inferior standard than the Holiday Inn chain of Hotels in Europe. The general decor is rather gloomy, although the rooms are big and well furnished.Breakfast is mediocre and resembles more the breakfast of  much inferior hotels.Selection of TV channels is limited and only contains American new network, no BBC, Sky or Euro News.Price paid was rather high for this standard. I must say that the staff are very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r184832808-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184832808</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>good location for business travellers in that area.</t>
+  </si>
+  <si>
+    <t>well,first night i noticed long hair strands about 3 of them on the bedsheet.seemed ,it was not changed from previous guest or it could  have been the maid's hair,who knows. i requested for a anpther bedsheet,as it was past 7pm,when we arrived.in general though,i really like the hotel,location ,service etc.will definitely comeback!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r178729321-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178729321</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Holiday Inn, and a fair value</t>
+  </si>
+  <si>
+    <t>Comfortable room, plenty of space to set up to work.  Good choice for this part of the Houston area.  Breakfast was nice although an extra charge.  Secure parking area behind a gate.  Just off the highway - easy access but no road noise.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r155953074-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155953074</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Great hotel in general. Bad experience.</t>
+  </si>
+  <si>
+    <t>The hotel was great. It was clean, didn't smell like smoke, facilities were well taken care of and the staff was very polite. Would've rated all 5 stars except maybe the price if I wouldn't have had the experience I had. If you want to read my rant, feel free. 
+Let me preface this by saying, the hotel states very clearly on their site that check-in time is 3pm. I knew this before I chose the hotel so technically I don't have a reason to complain but I will anyways. 
+When I booked my reservation I specifically asked if an early check in would be available. The operator said they'd request it but could not guarantee anything. My 2 year old son and I arrived in town at 8am on the morning of my reservation. I went to the front desk and said I had a reservation for that day and asked if my room happened to be available and if I could go ahead and check in. I was told it wasn't ready and to check back later. I came back an hour later and checked again. Room still wasn't ready. I asked if I could use any of the facilities in the mean time (laundry, pool, gym, etc). I was told I couldn't since they couldn't give me a key yet and to check back in at 11:30. I checked in every hour until 11:30 and then again...The hotel was great. It was clean, didn't smell like smoke, facilities were well taken care of and the staff was very polite. Would've rated all 5 stars except maybe the price if I wouldn't have had the experience I had. If you want to read my rant, feel free. Let me preface this by saying, the hotel states very clearly on their site that check-in time is 3pm. I knew this before I chose the hotel so technically I don't have a reason to complain but I will anyways. When I booked my reservation I specifically asked if an early check in would be available. The operator said they'd request it but could not guarantee anything. My 2 year old son and I arrived in town at 8am on the morning of my reservation. I went to the front desk and said I had a reservation for that day and asked if my room happened to be available and if I could go ahead and check in. I was told it wasn't ready and to check back later. I came back an hour later and checked again. Room still wasn't ready. I asked if I could use any of the facilities in the mean time (laundry, pool, gym, etc). I was told I couldn't since they couldn't give me a key yet and to check back in at 11:30. I checked in every hour until 11:30 and then again at 11:30. Room still wasn't ready. I gave them my number and asked them to please call me when my room was ready. My son was getting tired after killing time at a nearby park and we had both gotten sick of the inside of our car after driving all night so we decided to wait in the lobby. We sat in the lobby until exactly 3pm, no phone calls, until I walked up to the desk to ask again. My room was ready. Again, the website and the lady at the desk said check in time was 3pm, I just assumed they'd attempt to be a little more accomadating. Maybe have the staff not save my room for absolute last, which I assume was the case. I'm bitter as I write this but I guarantee, at the time,  my actions towards the employees would not have remotely provoked them to be spiteful towards me. Anyways, one last note, the entire staff was very polite to me during my stay, but I couldn't help feeling like they were a little... Robotic. Not very personal. Not necessarily a bad thing, just not what I'm accustomed to. The only person who even really acknowledged us personally was Eddie. He served us when we came down for breakfast. He sat down, introduced himself to my son and I, brought him crayons and a coloring pad (the lady that sat us only gave me one adult menu, did not ask if we required a high chair or booster seat) and since I ordered a fruit bowl for my son, he asked what kind of fruit my son likes and doesn't like. As we were leaving the hotel, he even remembered my sons name, called him over to the dining area and gave him extra crayons and coloring pads for the road. That really pleased me and I know my son was happy, so I'd just like to thank him again. All in all, I would stay here again and recommend it to others, but I would also be sure to stress the inflexibility of the hotel policies and staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was great. It was clean, didn't smell like smoke, facilities were well taken care of and the staff was very polite. Would've rated all 5 stars except maybe the price if I wouldn't have had the experience I had. If you want to read my rant, feel free. 
+Let me preface this by saying, the hotel states very clearly on their site that check-in time is 3pm. I knew this before I chose the hotel so technically I don't have a reason to complain but I will anyways. 
+When I booked my reservation I specifically asked if an early check in would be available. The operator said they'd request it but could not guarantee anything. My 2 year old son and I arrived in town at 8am on the morning of my reservation. I went to the front desk and said I had a reservation for that day and asked if my room happened to be available and if I could go ahead and check in. I was told it wasn't ready and to check back later. I came back an hour later and checked again. Room still wasn't ready. I asked if I could use any of the facilities in the mean time (laundry, pool, gym, etc). I was told I couldn't since they couldn't give me a key yet and to check back in at 11:30. I checked in every hour until 11:30 and then again...The hotel was great. It was clean, didn't smell like smoke, facilities were well taken care of and the staff was very polite. Would've rated all 5 stars except maybe the price if I wouldn't have had the experience I had. If you want to read my rant, feel free. Let me preface this by saying, the hotel states very clearly on their site that check-in time is 3pm. I knew this before I chose the hotel so technically I don't have a reason to complain but I will anyways. When I booked my reservation I specifically asked if an early check in would be available. The operator said they'd request it but could not guarantee anything. My 2 year old son and I arrived in town at 8am on the morning of my reservation. I went to the front desk and said I had a reservation for that day and asked if my room happened to be available and if I could go ahead and check in. I was told it wasn't ready and to check back later. I came back an hour later and checked again. Room still wasn't ready. I asked if I could use any of the facilities in the mean time (laundry, pool, gym, etc). I was told I couldn't since they couldn't give me a key yet and to check back in at 11:30. I checked in every hour until 11:30 and then again at 11:30. Room still wasn't ready. I gave them my number and asked them to please call me when my room was ready. My son was getting tired after killing time at a nearby park and we had both gotten sick of the inside of our car after driving all night so we decided to wait in the lobby. We sat in the lobby until exactly 3pm, no phone calls, until I walked up to the desk to ask again. My room was ready. Again, the website and the lady at the desk said check in time was 3pm, I just assumed they'd attempt to be a little more accomadating. Maybe have the staff not save my room for absolute last, which I assume was the case. I'm bitter as I write this but I guarantee, at the time,  my actions towards the employees would not have remotely provoked them to be spiteful towards me. Anyways, one last note, the entire staff was very polite to me during my stay, but I couldn't help feeling like they were a little... Robotic. Not very personal. Not necessarily a bad thing, just not what I'm accustomed to. The only person who even really acknowledged us personally was Eddie. He served us when we came down for breakfast. He sat down, introduced himself to my son and I, brought him crayons and a coloring pad (the lady that sat us only gave me one adult menu, did not ask if we required a high chair or booster seat) and since I ordered a fruit bowl for my son, he asked what kind of fruit my son likes and doesn't like. As we were leaving the hotel, he even remembered my sons name, called him over to the dining area and gave him extra crayons and coloring pads for the road. That really pleased me and I know my son was happy, so I'd just like to thank him again. All in all, I would stay here again and recommend it to others, but I would also be sure to stress the inflexibility of the hotel policies and staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r150376073-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150376073</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Convenient location, Good service</t>
+  </si>
+  <si>
+    <t>Most important:Clean and up-to-date rooms, plesant service, secure parking area.Breakfast was decent, they had bacon, eggs and sausage in addition to the typical contenintal items.Dinner tip: If you don't feel like going out for dinner or whatever... There is a Kroger about 1 mile north on the highway that has an in-house sushi chef.  Brought it back to the room; as good as the average medium priced sushi restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>General Manager h, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Most important:Clean and up-to-date rooms, plesant service, secure parking area.Breakfast was decent, they had bacon, eggs and sausage in addition to the typical contenintal items.Dinner tip: If you don't feel like going out for dinner or whatever... There is a Kroger about 1 mile north on the highway that has an in-house sushi chef.  Brought it back to the room; as good as the average medium priced sushi restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r147073076-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147073076</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>Great location, super friendly and professional staff, and rooms were very comfortable. I've stayed in the past, and always get the same great service here. I would defiantly recommend this property if your traveling to this area (Tomball, Willowbrook Mall, anywhere near 1960 and 249). MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Great location, super friendly and professional staff, and rooms were very comfortable. I've stayed in the past, and always get the same great service here. I would defiantly recommend this property if your traveling to this area (Tomball, Willowbrook Mall, anywhere near 1960 and 249). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r142351507-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142351507</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>The service and staff are incredible.</t>
+  </si>
+  <si>
+    <t>I stayed once at this location and did not visit again for another month. I was so impressed when I walked in and they greeted me by name. Ever since then it is the only place I will stay when in Houston, even if it is a 30matter mile drive to where I will be conducting business. I never plan ahead and make reservations, but when I walk in they will out me in the same room if it is open without me even asking. The staff make this my hotel. If you go make sure to visit Mary in the lounge and tell her Marvin says hello! Unfortunately I no longer have business in the Houston area but still compare all my hotel stays to them.  Haven't found anyone that can compare.  The experience made me feel like a Las Vegas higher roller.MoreShow less</t>
+  </si>
+  <si>
+    <t>General Manager h, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2012</t>
+  </si>
+  <si>
+    <t>I stayed once at this location and did not visit again for another month. I was so impressed when I walked in and they greeted me by name. Ever since then it is the only place I will stay when in Houston, even if it is a 30matter mile drive to where I will be conducting business. I never plan ahead and make reservations, but when I walk in they will out me in the same room if it is open without me even asking. The staff make this my hotel. If you go make sure to visit Mary in the lounge and tell her Marvin says hello! Unfortunately I no longer have business in the Houston area but still compare all my hotel stays to them.  Haven't found anyone that can compare.  The experience made me feel like a Las Vegas higher roller.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r137128610-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137128610</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Great place to spend the weekend!</t>
+  </si>
+  <si>
+    <t>I checked in on Wednesday evening and stayed until the following Tuesday.  This hotel is clean, odor free, and the staff is knowledgable and helpful.  Large room had refrigerator and microwave.This was a comfortable place to spend several days.  Also conveniently located, lots of shopping, movie theaters and restaurants nearby.On the Friday night there was a very loud party in one of the banquet rooms, too loud considering that the hotel had a lot of paying guests.  The front desk clerk was kind enough to offer to move me to a different room or give complimentary food vouchers.  I got 3 free breakfasts --good deal.  This was a good hotel experience and I would definitely stay here again.  They also have a gated, secure parking area for hotel guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I checked in on Wednesday evening and stayed until the following Tuesday.  This hotel is clean, odor free, and the staff is knowledgable and helpful.  Large room had refrigerator and microwave.This was a comfortable place to spend several days.  Also conveniently located, lots of shopping, movie theaters and restaurants nearby.On the Friday night there was a very loud party in one of the banquet rooms, too loud considering that the hotel had a lot of paying guests.  The front desk clerk was kind enough to offer to move me to a different room or give complimentary food vouchers.  I got 3 free breakfasts --good deal.  This was a good hotel experience and I would definitely stay here again.  They also have a gated, secure parking area for hotel guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r132771239-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132771239</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Holiday Inn express has better service?</t>
+  </si>
+  <si>
+    <t>I have to travel frequently to Houston for work, and have stayed at a the Holiday Inn express a few times. Have also used a couple of other similar chains in the same NW Houston area. We decided to pay a little extra and stay at regular Holiday Inn rather than an express. One the Hotel is feeling a little aged, they label the pillows as though there was some difference in them (not) I have to say the express had a better trained and friendlier staff, every time we were heading out for the day they would acknowledge you, and offer you a bottle of, much appreciated water, considering the heat in Houston. Got back to the hotel last night and realized we hadn't stopped for water, so husband heads down to the lobby to inquire where we could get some. The restaurants closed and we're all out you can go to the machine. Ok where is the machine near the elevator okey dokey checked the 1st floor 2nd floor 3rd floor,nope. OK back to the lobby, oh I think they moved them hang on because this other employee apparently is in a hurry and I must take care of him first, than he did come and help to find the wandering water machine which 1st one was out second one didn't work OK third one right, nope doesn't work either, really. Just to check today asked any change...I have to travel frequently to Houston for work, and have stayed at a the Holiday Inn express a few times. Have also used a couple of other similar chains in the same NW Houston area. We decided to pay a little extra and stay at regular Holiday Inn rather than an express. One the Hotel is feeling a little aged, they label the pillows as though there was some difference in them (not) I have to say the express had a better trained and friendlier staff, every time we were heading out for the day they would acknowledge you, and offer you a bottle of, much appreciated water, considering the heat in Houston. Got back to the hotel last night and realized we hadn't stopped for water, so husband heads down to the lobby to inquire where we could get some. The restaurants closed and we're all out you can go to the machine. Ok where is the machine near the elevator okey dokey checked the 1st floor 2nd floor 3rd floor,nope. OK back to the lobby, oh I think they moved them hang on because this other employee apparently is in a hurry and I must take care of him first, than he did come and help to find the wandering water machine which 1st one was out second one didn't work OK third one right, nope doesn't work either, really. Just to check today asked any change in the water department? Nope.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>I have to travel frequently to Houston for work, and have stayed at a the Holiday Inn express a few times. Have also used a couple of other similar chains in the same NW Houston area. We decided to pay a little extra and stay at regular Holiday Inn rather than an express. One the Hotel is feeling a little aged, they label the pillows as though there was some difference in them (not) I have to say the express had a better trained and friendlier staff, every time we were heading out for the day they would acknowledge you, and offer you a bottle of, much appreciated water, considering the heat in Houston. Got back to the hotel last night and realized we hadn't stopped for water, so husband heads down to the lobby to inquire where we could get some. The restaurants closed and we're all out you can go to the machine. Ok where is the machine near the elevator okey dokey checked the 1st floor 2nd floor 3rd floor,nope. OK back to the lobby, oh I think they moved them hang on because this other employee apparently is in a hurry and I must take care of him first, than he did come and help to find the wandering water machine which 1st one was out second one didn't work OK third one right, nope doesn't work either, really. Just to check today asked any change...I have to travel frequently to Houston for work, and have stayed at a the Holiday Inn express a few times. Have also used a couple of other similar chains in the same NW Houston area. We decided to pay a little extra and stay at regular Holiday Inn rather than an express. One the Hotel is feeling a little aged, they label the pillows as though there was some difference in them (not) I have to say the express had a better trained and friendlier staff, every time we were heading out for the day they would acknowledge you, and offer you a bottle of, much appreciated water, considering the heat in Houston. Got back to the hotel last night and realized we hadn't stopped for water, so husband heads down to the lobby to inquire where we could get some. The restaurants closed and we're all out you can go to the machine. Ok where is the machine near the elevator okey dokey checked the 1st floor 2nd floor 3rd floor,nope. OK back to the lobby, oh I think they moved them hang on because this other employee apparently is in a hurry and I must take care of him first, than he did come and help to find the wandering water machine which 1st one was out second one didn't work OK third one right, nope doesn't work either, really. Just to check today asked any change in the water department? Nope.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r131023019-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131023019</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I was only in the hotel one night, but it was clean, comfortable, and well maintained. Several restaurants nearby and easy access to the freeway. Will stay here again when I am in the area.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r130016709-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130016709</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Very nice staff and great location!</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay very much and I thought the staff was all excellent. Highly recommend to everyone!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r124269445-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124269445</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, everything as expected.</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here thanks to Priority Club's knockdown redemption promo. Not many bad things to say really. Checkin was smooth, everything was clean and the front desk staff were friendly and helpful. Oh, breakfast was not fantastic. Typical American style breakfast with food that resembled reheated frozen food.  Also, some of the bathroom fittings need to be looked into. The hair dryer was hanging loosely from the wall and the ceiling vent was loose and jutting out.Didn't use the pool, so can't comment. Appreciated the late checkout and secure parking area. Lotsa decent restaurants nearby (but you will need a car).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>General Manager h, General Manager at Wyndham Garden Houston Willowbrook, responded to this reviewResponded February 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2012</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here thanks to Priority Club's knockdown redemption promo. Not many bad things to say really. Checkin was smooth, everything was clean and the front desk staff were friendly and helpful. Oh, breakfast was not fantastic. Typical American style breakfast with food that resembled reheated frozen food.  Also, some of the bathroom fittings need to be looked into. The hair dryer was hanging loosely from the wall and the ceiling vent was loose and jutting out.Didn't use the pool, so can't comment. Appreciated the late checkout and secure parking area. Lotsa decent restaurants nearby (but you will need a car).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r120594993-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120594993</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Eh, looked ok, but got bad QUICK</t>
+  </si>
+  <si>
+    <t>We had planned to stay at this hotel for two nights... Our entire stay lasted maybe THIRTY MINUTES!   The staff wasn't "rude" but more like semi-warm dishwater, I mean not really offensive, but NOT what you want or expect.  After we checked in- the process wasn't bad, I asked about the in-door pool... "Oh, it's not working"... HUH?  I told her that was one of the main reasons we decided to stay there, she seemed very un-apologettic and shrugged me off.  WOW!  My son had to pee (hey, we are a family with kids so when potty speaks we listen!) so we went up to the room so he could do his business.  While I was outside in the hall speaking with customer service about getting some compensation for the pool being broken, the FIRE ALARM goes off in our room and the smell of something burning fills the room... NOW my kids are scared (luckily this happened AFTER potty-time, so no change of clothes needed!), that was IT... we were out of there.  I informed both the ladies at the desk about the fire alarm going off in the room and the smell of something burning, and neither one of them did a thing, no calls not even a raised eyebrow.  So NOPE not feelin safe about that hotel at all.  Such a shame, it looked so promising in pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We had planned to stay at this hotel for two nights... Our entire stay lasted maybe THIRTY MINUTES!   The staff wasn't "rude" but more like semi-warm dishwater, I mean not really offensive, but NOT what you want or expect.  After we checked in- the process wasn't bad, I asked about the in-door pool... "Oh, it's not working"... HUH?  I told her that was one of the main reasons we decided to stay there, she seemed very un-apologettic and shrugged me off.  WOW!  My son had to pee (hey, we are a family with kids so when potty speaks we listen!) so we went up to the room so he could do his business.  While I was outside in the hall speaking with customer service about getting some compensation for the pool being broken, the FIRE ALARM goes off in our room and the smell of something burning fills the room... NOW my kids are scared (luckily this happened AFTER potty-time, so no change of clothes needed!), that was IT... we were out of there.  I informed both the ladies at the desk about the fire alarm going off in the room and the smell of something burning, and neither one of them did a thing, no calls not even a raised eyebrow.  So NOPE not feelin safe about that hotel at all.  Such a shame, it looked so promising in pictures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r111653133-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111653133</t>
+  </si>
+  <si>
+    <t>06/05/2011</t>
+  </si>
+  <si>
+    <t>Found dirty underwear in the room and the pool turned my daughter's hair green</t>
+  </si>
+  <si>
+    <t>My daughter and I came into town for a big soccer tournament and wanted to stay somewhere that we knew would be hassle-free.  Other Holiday Inn Expresses have been great, so I figure this one would be no different.
+Check in went smoothly.  They were out of twin rooms, but the lady at the desk said she'd get us a roll-away bed and she did just that.  I appreciated that and the stay started out good.
+We went to the pool and were immediately struck by the strong smell of pool chemicals.  We still wanted to relax in the pool after a long day of soccer games, so we got in.  About 30 minuted later, I noticed my daughter's hair looked funny.  All the blond highlights were green.  Not kind of green, not sort of green, but radioactive-looking green!  I had heard that that could happen if you swim and don't wash your hair immediately after, but this happened while we were still in the pool!  They either used bad chemicals or too much because this has never happened in any other pool we've used.
+The next morning, we were packing our bags and I saw something on the side of the bed.  They were Calvin Klein underwear.  No one in my family wears Calvin Klein underwear and to top it off, they looked dirty.  GROSS, I let the manager on duty know and she apologized and said the general...My daughter and I came into town for a big soccer tournament and wanted to stay somewhere that we knew would be hassle-free.  Other Holiday Inn Expresses have been great, so I figure this one would be no different.Check in went smoothly.  They were out of twin rooms, but the lady at the desk said she'd get us a roll-away bed and she did just that.  I appreciated that and the stay started out good.We went to the pool and were immediately struck by the strong smell of pool chemicals.  We still wanted to relax in the pool after a long day of soccer games, so we got in.  About 30 minuted later, I noticed my daughter's hair looked funny.  All the blond highlights were green.  Not kind of green, not sort of green, but radioactive-looking green!  I had heard that that could happen if you swim and don't wash your hair immediately after, but this happened while we were still in the pool!  They either used bad chemicals or too much because this has never happened in any other pool we've used.The next morning, we were packing our bags and I saw something on the side of the bed.  They were Calvin Klein underwear.  No one in my family wears Calvin Klein underwear and to top it off, they looked dirty.  GROSS, I let the manager on duty know and she apologized and said the general manager would contact me, but this hasn't happened yet.  I'm not sure what I expect the hotel to do about it after the fact, but finding dirty underwear really grossed my daughter and me out and I couldn't help but wonder if the bed I had slept in had even been cleaned.  I'm still completely grossed out.Would I go back?  Not a chance.  There's a La Quinta right next door and a couple other hotels close by.  I'd take my chances with one of them.  I don't trust the housekeepers or the pool maintenance people here one bit.  Still grossed out...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My daughter and I came into town for a big soccer tournament and wanted to stay somewhere that we knew would be hassle-free.  Other Holiday Inn Expresses have been great, so I figure this one would be no different.
+Check in went smoothly.  They were out of twin rooms, but the lady at the desk said she'd get us a roll-away bed and she did just that.  I appreciated that and the stay started out good.
+We went to the pool and were immediately struck by the strong smell of pool chemicals.  We still wanted to relax in the pool after a long day of soccer games, so we got in.  About 30 minuted later, I noticed my daughter's hair looked funny.  All the blond highlights were green.  Not kind of green, not sort of green, but radioactive-looking green!  I had heard that that could happen if you swim and don't wash your hair immediately after, but this happened while we were still in the pool!  They either used bad chemicals or too much because this has never happened in any other pool we've used.
+The next morning, we were packing our bags and I saw something on the side of the bed.  They were Calvin Klein underwear.  No one in my family wears Calvin Klein underwear and to top it off, they looked dirty.  GROSS, I let the manager on duty know and she apologized and said the general...My daughter and I came into town for a big soccer tournament and wanted to stay somewhere that we knew would be hassle-free.  Other Holiday Inn Expresses have been great, so I figure this one would be no different.Check in went smoothly.  They were out of twin rooms, but the lady at the desk said she'd get us a roll-away bed and she did just that.  I appreciated that and the stay started out good.We went to the pool and were immediately struck by the strong smell of pool chemicals.  We still wanted to relax in the pool after a long day of soccer games, so we got in.  About 30 minuted later, I noticed my daughter's hair looked funny.  All the blond highlights were green.  Not kind of green, not sort of green, but radioactive-looking green!  I had heard that that could happen if you swim and don't wash your hair immediately after, but this happened while we were still in the pool!  They either used bad chemicals or too much because this has never happened in any other pool we've used.The next morning, we were packing our bags and I saw something on the side of the bed.  They were Calvin Klein underwear.  No one in my family wears Calvin Klein underwear and to top it off, they looked dirty.  GROSS, I let the manager on duty know and she apologized and said the general manager would contact me, but this hasn't happened yet.  I'm not sure what I expect the hotel to do about it after the fact, but finding dirty underwear really grossed my daughter and me out and I couldn't help but wonder if the bed I had slept in had even been cleaned.  I'm still completely grossed out.Would I go back?  Not a chance.  There's a La Quinta right next door and a couple other hotels close by.  I'd take my chances with one of them.  I don't trust the housekeepers or the pool maintenance people here one bit.  Still grossed out...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r89250766-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89250766</t>
+  </si>
+  <si>
+    <t>12/07/2010</t>
+  </si>
+  <si>
+    <t>very convenient hotel</t>
+  </si>
+  <si>
+    <t>We had all what we needed. The rooms were nice, clean, the breakfast was great. We liked the location, 5 minutes away from the Willowbrook Mall, grocery stores, Hair Salon, pharmacy, my teen loved the Best Buy store which was so close by. Wallmart was also very close, and so was Target. THere were several restaurants near by too. we couldn't have been better situated. We will come back often.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r38070866-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>38070866</t>
+  </si>
+  <si>
+    <t>08/18/2009</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We rented three rooms, our family had come down to Houston for a wedding. We stayed two nights with no complaints. The staff was friendly and very helpful. The first night we got there, one of the rooms we had smelled like smoke, and they were more than happy to give us another room. The breakfast was good, eventhough the pancakes and waffles were hard. The staff in this hotel is great, the bathroom was big and clean, and the blankets were cozy. I don't think there were alot of people staying when we were there (judging from the sparse cars in the parking lot), but we still got great service.The only complaint I have is for the entrance to the hotel. We got there at night and entered in on the wrong side. They don't have Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>We rented three rooms, our family had come down to Houston for a wedding. We stayed two nights with no complaints. The staff was friendly and very helpful. The first night we got there, one of the rooms we had smelled like smoke, and they were more than happy to give us another room. The breakfast was good, eventhough the pancakes and waffles were hard. The staff in this hotel is great, the bathroom was big and clean, and the blankets were cozy. I don't think there were alot of people staying when we were there (judging from the sparse cars in the parking lot), but we still got great service.The only complaint I have is for the entrance to the hotel. We got there at night and entered in on the wrong side. They don't have Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r22071960-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22071960</t>
+  </si>
+  <si>
+    <t>11/21/2008</t>
+  </si>
+  <si>
+    <t>I give them an "E" for effort, but thats about it</t>
+  </si>
+  <si>
+    <t>I believe this Holiday Inn has been recently converted from another hotel.  The furniture appears to be fairly new in the rooms and the overall property is clean.  Staff was friendly but didn't really  "shine", not that I really expected them to a Holiday Inn.  Rooms are basic and as I mentioned above appear to have new furniture.  Bathroom was clean although the toilet ran all night and the show was barely warm at 7:00am.    Breakfast was dismal and ended at 9am instead of the usual 10am.  By the time I arrived each morning at 8:30am everything was picked over.  The maid service also starts early.  I was working, not yet dressed for the day around 8:15 when I heard a faint knock on my door.  By the time I jumped up, grabbed a shirt, and tried to make it to the door, the maid was already opening it up with her master key.  We were both embarrassed, she apologized and moved on.  I didn't have time to enjoy the bar, but from a distance it looked well stocked with the basic brands and mixers.  The hotel managed to shove a pool table into the bar area so it made the already small area even tighter.  Overall the hotel works for business travelers or just a quick overnight stay but that's about it.. Don't expect much more.  Its important to know that there is NOT a full service restaurant on...I believe this Holiday Inn has been recently converted from another hotel.  The furniture appears to be fairly new in the rooms and the overall property is clean.  Staff was friendly but didn't really  "shine", not that I really expected them to a Holiday Inn.  Rooms are basic and as I mentioned above appear to have new furniture.  Bathroom was clean although the toilet ran all night and the show was barely warm at 7:00am.    Breakfast was dismal and ended at 9am instead of the usual 10am.  By the time I arrived each morning at 8:30am everything was picked over.  The maid service also starts early.  I was working, not yet dressed for the day around 8:15 when I heard a faint knock on my door.  By the time I jumped up, grabbed a shirt, and tried to make it to the door, the maid was already opening it up with her master key.  We were both embarrassed, she apologized and moved on.  I didn't have time to enjoy the bar, but from a distance it looked well stocked with the basic brands and mixers.  The hotel managed to shove a pool table into the bar area so it made the already small area even tighter.  Overall the hotel works for business travelers or just a quick overnight stay but that's about it.. Don't expect much more.  Its important to know that there is NOT a full service restaurant on site (at least that i saw).. No Lunch or Dinner served although a couple of places deliver.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I believe this Holiday Inn has been recently converted from another hotel.  The furniture appears to be fairly new in the rooms and the overall property is clean.  Staff was friendly but didn't really  "shine", not that I really expected them to a Holiday Inn.  Rooms are basic and as I mentioned above appear to have new furniture.  Bathroom was clean although the toilet ran all night and the show was barely warm at 7:00am.    Breakfast was dismal and ended at 9am instead of the usual 10am.  By the time I arrived each morning at 8:30am everything was picked over.  The maid service also starts early.  I was working, not yet dressed for the day around 8:15 when I heard a faint knock on my door.  By the time I jumped up, grabbed a shirt, and tried to make it to the door, the maid was already opening it up with her master key.  We were both embarrassed, she apologized and moved on.  I didn't have time to enjoy the bar, but from a distance it looked well stocked with the basic brands and mixers.  The hotel managed to shove a pool table into the bar area so it made the already small area even tighter.  Overall the hotel works for business travelers or just a quick overnight stay but that's about it.. Don't expect much more.  Its important to know that there is NOT a full service restaurant on...I believe this Holiday Inn has been recently converted from another hotel.  The furniture appears to be fairly new in the rooms and the overall property is clean.  Staff was friendly but didn't really  "shine", not that I really expected them to a Holiday Inn.  Rooms are basic and as I mentioned above appear to have new furniture.  Bathroom was clean although the toilet ran all night and the show was barely warm at 7:00am.    Breakfast was dismal and ended at 9am instead of the usual 10am.  By the time I arrived each morning at 8:30am everything was picked over.  The maid service also starts early.  I was working, not yet dressed for the day around 8:15 when I heard a faint knock on my door.  By the time I jumped up, grabbed a shirt, and tried to make it to the door, the maid was already opening it up with her master key.  We were both embarrassed, she apologized and moved on.  I didn't have time to enjoy the bar, but from a distance it looked well stocked with the basic brands and mixers.  The hotel managed to shove a pool table into the bar area so it made the already small area even tighter.  Overall the hotel works for business travelers or just a quick overnight stay but that's about it.. Don't expect much more.  Its important to know that there is NOT a full service restaurant on site (at least that i saw).. No Lunch or Dinner served although a couple of places deliver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r8715758-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8715758</t>
+  </si>
+  <si>
+    <t>09/13/2007</t>
+  </si>
+  <si>
+    <t>Love those pillows!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 2 nights while attending a weekend meeting in Tomball (15 minutes north on Hwy 249).  Easy to find the hotel in the dark although I turned onto the entrance blvd the wrong way.  I prepaid for the hotel directly on their website and got a reasonable rate ($60) for the area and quality.  I was very tired both evenings and thoroughly enjoyed the four fluffy pillows on my bed...one for each arm and leg!!  Bedding was great.  Refrigerator, mcrowave and chair were also provided.  The room was very attractively decorated above average.   The bathroom was clean and large, and the bathroom door was positioned so that light did not bother others sleeping in later.  The computer/internet was easy to set up and use.  Nice desk provided.    I had mistakenly glanced at the hotel pictures and thought the hotel offered complimentary typical toast  breakfast, but only breakfast available was pricey and I choose to find numerous fast food restaurants on my 15 minute commute north on Hwy 249.
+The one issue I had was the nonfunctioning ice machine on the second floor, but there was a note directing one to the north end (whichever way that was) of the building on first or third floor.   This was quite a hike for someone as tired as I was who just wanted to cool his coke.  I would have also liked to have found a vending machine with...Stayed at this hotel for 2 nights while attending a weekend meeting in Tomball (15 minutes north on Hwy 249).  Easy to find the hotel in the dark although I turned onto the entrance blvd the wrong way.  I prepaid for the hotel directly on their website and got a reasonable rate ($60) for the area and quality.  I was very tired both evenings and thoroughly enjoyed the four fluffy pillows on my bed...one for each arm and leg!!  Bedding was great.  Refrigerator, mcrowave and chair were also provided.  The room was very attractively decorated above average.   The bathroom was clean and large, and the bathroom door was positioned so that light did not bother others sleeping in later.  The computer/internet was easy to set up and use.  Nice desk provided.    I had mistakenly glanced at the hotel pictures and thought the hotel offered complimentary typical toast  breakfast, but only breakfast available was pricey and I choose to find numerous fast food restaurants on my 15 minute commute north on Hwy 249.The one issue I had was the nonfunctioning ice machine on the second floor, but there was a note directing one to the north end (whichever way that was) of the building on first or third floor.   This was quite a hike for someone as tired as I was who just wanted to cool his coke.  I would have also liked to have found a vending machine with a snack (apple, nuts), but drinks were only found.Two good restaurants I would recommend nearby in Tomball included Pecos Grill with lots of homemade food variety and the Rib Tickler (typical barb b q with potato salad, coleslaw, etc).  Both located on Hwy 249 north in Tomball past Medical Complex Dr on right if heading north.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 2 nights while attending a weekend meeting in Tomball (15 minutes north on Hwy 249).  Easy to find the hotel in the dark although I turned onto the entrance blvd the wrong way.  I prepaid for the hotel directly on their website and got a reasonable rate ($60) for the area and quality.  I was very tired both evenings and thoroughly enjoyed the four fluffy pillows on my bed...one for each arm and leg!!  Bedding was great.  Refrigerator, mcrowave and chair were also provided.  The room was very attractively decorated above average.   The bathroom was clean and large, and the bathroom door was positioned so that light did not bother others sleeping in later.  The computer/internet was easy to set up and use.  Nice desk provided.    I had mistakenly glanced at the hotel pictures and thought the hotel offered complimentary typical toast  breakfast, but only breakfast available was pricey and I choose to find numerous fast food restaurants on my 15 minute commute north on Hwy 249.
+The one issue I had was the nonfunctioning ice machine on the second floor, but there was a note directing one to the north end (whichever way that was) of the building on first or third floor.   This was quite a hike for someone as tired as I was who just wanted to cool his coke.  I would have also liked to have found a vending machine with...Stayed at this hotel for 2 nights while attending a weekend meeting in Tomball (15 minutes north on Hwy 249).  Easy to find the hotel in the dark although I turned onto the entrance blvd the wrong way.  I prepaid for the hotel directly on their website and got a reasonable rate ($60) for the area and quality.  I was very tired both evenings and thoroughly enjoyed the four fluffy pillows on my bed...one for each arm and leg!!  Bedding was great.  Refrigerator, mcrowave and chair were also provided.  The room was very attractively decorated above average.   The bathroom was clean and large, and the bathroom door was positioned so that light did not bother others sleeping in later.  The computer/internet was easy to set up and use.  Nice desk provided.    I had mistakenly glanced at the hotel pictures and thought the hotel offered complimentary typical toast  breakfast, but only breakfast available was pricey and I choose to find numerous fast food restaurants on my 15 minute commute north on Hwy 249.The one issue I had was the nonfunctioning ice machine on the second floor, but there was a note directing one to the north end (whichever way that was) of the building on first or third floor.   This was quite a hike for someone as tired as I was who just wanted to cool his coke.  I would have also liked to have found a vending machine with a snack (apple, nuts), but drinks were only found.Two good restaurants I would recommend nearby in Tomball included Pecos Grill with lots of homemade food variety and the Rib Tickler (typical barb b q with potato salad, coleslaw, etc).  Both located on Hwy 249 north in Tomball past Medical Complex Dr on right if heading north.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107982-r3519961-Wyndham_Garden_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3519961</t>
+  </si>
+  <si>
+    <t>06/01/2005</t>
+  </si>
+  <si>
+    <t>Slightly above a dump!</t>
+  </si>
+  <si>
+    <t>Can't say it was terrible because the room was large and clean. The place is nothing special. TV was poor quality. Shower head broke off the first day and had to shower with just a spurt of water. It had obviously been cracked for some time from looking at it. Gave it to the desk clerk who was very nice and promised to get it replaced. Came in that afternoon and the replacement was another poor quality, used shower head that was corroded and had not even been scraped clean or soaked to remove the scale and water deposits. The overall maintenance at this place is poor. The carpets in the halls were dirty and the parking lot was trashy. The elevators were poorly located and very slow. The halls and lobby were not cool and the AC in the room was noisy. The breakfast was plentiful but poor quality. Eggs were runny and the bacon was overcooked. It was difficult to get a 'to-go' cup for coffee.The staff was nice.Pick some other place if you have a choice. I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2005</t>
+  </si>
+  <si>
+    <t>Can't say it was terrible because the room was large and clean. The place is nothing special. TV was poor quality. Shower head broke off the first day and had to shower with just a spurt of water. It had obviously been cracked for some time from looking at it. Gave it to the desk clerk who was very nice and promised to get it replaced. Came in that afternoon and the replacement was another poor quality, used shower head that was corroded and had not even been scraped clean or soaked to remove the scale and water deposits. The overall maintenance at this place is poor. The carpets in the halls were dirty and the parking lot was trashy. The elevators were poorly located and very slow. The halls and lobby were not cool and the AC in the room was noisy. The breakfast was plentiful but poor quality. Eggs were runny and the bacon was overcooked. It was difficult to get a 'to-go' cup for coffee.The staff was nice.Pick some other place if you have a choice. I will not stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2456,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2488,5650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>133</v>
+      </c>
+      <c r="X18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" t="s">
+        <v>202</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>210</v>
+      </c>
+      <c r="X27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>225</v>
+      </c>
+      <c r="X29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>275</v>
+      </c>
+      <c r="X35" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s">
+        <v>293</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>303</v>
+      </c>
+      <c r="X39" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>312</v>
+      </c>
+      <c r="X40" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s">
+        <v>318</v>
+      </c>
+      <c r="L41" t="s">
+        <v>319</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>320</v>
+      </c>
+      <c r="X41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" t="s">
+        <v>327</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s">
+        <v>82</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>329</v>
+      </c>
+      <c r="X42" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" t="s">
+        <v>334</v>
+      </c>
+      <c r="L43" t="s">
+        <v>335</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>328</v>
+      </c>
+      <c r="O43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>329</v>
+      </c>
+      <c r="X43" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>347</v>
+      </c>
+      <c r="L45" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>350</v>
+      </c>
+      <c r="X45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O46" t="s">
+        <v>202</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>356</v>
+      </c>
+      <c r="X46" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>363</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>364</v>
+      </c>
+      <c r="X47" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>368</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" t="s">
+        <v>371</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>372</v>
+      </c>
+      <c r="X48" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
+        <v>379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>389</v>
+      </c>
+      <c r="X50" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>397</v>
+      </c>
+      <c r="X51" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>388</v>
+      </c>
+      <c r="O52" t="s">
+        <v>202</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>389</v>
+      </c>
+      <c r="X52" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>406</v>
+      </c>
+      <c r="J53" t="s">
+        <v>407</v>
+      </c>
+      <c r="K53" t="s">
+        <v>408</v>
+      </c>
+      <c r="L53" t="s">
+        <v>409</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>411</v>
+      </c>
+      <c r="X53" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" t="s">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>427</v>
+      </c>
+      <c r="J56" t="s">
+        <v>428</v>
+      </c>
+      <c r="K56" t="s">
+        <v>429</v>
+      </c>
+      <c r="L56" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>431</v>
+      </c>
+      <c r="X56" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>435</v>
+      </c>
+      <c r="J57" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>439</v>
+      </c>
+      <c r="X57" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" t="s">
+        <v>444</v>
+      </c>
+      <c r="K58" t="s">
+        <v>445</v>
+      </c>
+      <c r="L58" t="s">
+        <v>446</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>447</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>448</v>
+      </c>
+      <c r="X58" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>452</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>456</v>
+      </c>
+      <c r="X59" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>465</v>
+      </c>
+      <c r="X60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>469</v>
+      </c>
+      <c r="J61" t="s">
+        <v>470</v>
+      </c>
+      <c r="K61" t="s">
+        <v>471</v>
+      </c>
+      <c r="L61" t="s">
+        <v>472</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>447</v>
+      </c>
+      <c r="O61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>456</v>
+      </c>
+      <c r="X61" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>475</v>
+      </c>
+      <c r="J62" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" t="s">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s">
+        <v>478</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>82</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>480</v>
+      </c>
+      <c r="X62" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>484</v>
+      </c>
+      <c r="J63" t="s">
+        <v>485</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s">
+        <v>487</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>488</v>
+      </c>
+      <c r="O63" t="s">
+        <v>82</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>489</v>
+      </c>
+      <c r="X63" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>492</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" t="s">
+        <v>494</v>
+      </c>
+      <c r="K64" t="s">
+        <v>495</v>
+      </c>
+      <c r="L64" t="s">
+        <v>496</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>497</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>498</v>
+      </c>
+      <c r="X64" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>501</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>502</v>
+      </c>
+      <c r="J65" t="s">
+        <v>503</v>
+      </c>
+      <c r="K65" t="s">
+        <v>504</v>
+      </c>
+      <c r="L65" t="s">
+        <v>505</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>506</v>
+      </c>
+      <c r="O65" t="s">
+        <v>82</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>507</v>
+      </c>
+      <c r="X65" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>511</v>
+      </c>
+      <c r="J66" t="s">
+        <v>512</v>
+      </c>
+      <c r="K66" t="s">
+        <v>513</v>
+      </c>
+      <c r="L66" t="s">
+        <v>514</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>523</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>526</v>
+      </c>
+      <c r="J68" t="s">
+        <v>527</v>
+      </c>
+      <c r="K68" t="s">
+        <v>528</v>
+      </c>
+      <c r="L68" t="s">
+        <v>529</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>531</v>
+      </c>
+      <c r="X68" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>534</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>535</v>
+      </c>
+      <c r="J69" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>537</v>
+      </c>
+      <c r="L69" t="s">
+        <v>538</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>539</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>540</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>541</v>
+      </c>
+      <c r="J70" t="s">
+        <v>542</v>
+      </c>
+      <c r="K70" t="s">
+        <v>543</v>
+      </c>
+      <c r="L70" t="s">
+        <v>544</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>545</v>
+      </c>
+      <c r="O70" t="s">
+        <v>82</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>547</v>
+      </c>
+      <c r="J71" t="s">
+        <v>548</v>
+      </c>
+      <c r="K71" t="s">
+        <v>549</v>
+      </c>
+      <c r="L71" t="s">
+        <v>550</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>552</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>553</v>
+      </c>
+      <c r="J72" t="s">
+        <v>554</v>
+      </c>
+      <c r="K72" t="s">
+        <v>555</v>
+      </c>
+      <c r="L72" t="s">
+        <v>556</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>557</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>558</v>
+      </c>
+      <c r="X72" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>561</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>562</v>
+      </c>
+      <c r="J73" t="s">
+        <v>563</v>
+      </c>
+      <c r="K73" t="s">
+        <v>564</v>
+      </c>
+      <c r="L73" t="s">
+        <v>565</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>566</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>558</v>
+      </c>
+      <c r="X73" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>568</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>569</v>
+      </c>
+      <c r="J74" t="s">
+        <v>570</v>
+      </c>
+      <c r="K74" t="s">
+        <v>571</v>
+      </c>
+      <c r="L74" t="s">
+        <v>572</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>573</v>
+      </c>
+      <c r="X74" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>576</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>577</v>
+      </c>
+      <c r="J75" t="s">
+        <v>578</v>
+      </c>
+      <c r="K75" t="s">
+        <v>579</v>
+      </c>
+      <c r="L75" t="s">
+        <v>580</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>581</v>
+      </c>
+      <c r="O75" t="s">
+        <v>82</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>583</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>584</v>
+      </c>
+      <c r="J76" t="s">
+        <v>585</v>
+      </c>
+      <c r="K76" t="s">
+        <v>586</v>
+      </c>
+      <c r="L76" t="s">
+        <v>587</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>588</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>589</v>
+      </c>
+      <c r="X76" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" t="s">
+        <v>594</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>598</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>599</v>
+      </c>
+      <c r="J78" t="s">
+        <v>600</v>
+      </c>
+      <c r="K78" t="s">
+        <v>601</v>
+      </c>
+      <c r="L78" t="s">
+        <v>602</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>597</v>
+      </c>
+      <c r="O78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>603</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>604</v>
+      </c>
+      <c r="J79" t="s">
+        <v>605</v>
+      </c>
+      <c r="K79" t="s">
+        <v>606</v>
+      </c>
+      <c r="L79" t="s">
+        <v>607</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>608</v>
+      </c>
+      <c r="O79" t="s">
+        <v>102</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>609</v>
+      </c>
+      <c r="X79" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>612</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>613</v>
+      </c>
+      <c r="J80" t="s">
+        <v>614</v>
+      </c>
+      <c r="K80" t="s">
+        <v>615</v>
+      </c>
+      <c r="L80" t="s">
+        <v>616</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>617</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>619</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>620</v>
+      </c>
+      <c r="J81" t="s">
+        <v>621</v>
+      </c>
+      <c r="K81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L81" t="s">
+        <v>623</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>624</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>627</v>
+      </c>
+      <c r="J82" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" t="s">
+        <v>629</v>
+      </c>
+      <c r="L82" t="s">
+        <v>630</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>631</v>
+      </c>
+      <c r="O82" t="s">
+        <v>82</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>632</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>633</v>
+      </c>
+      <c r="J83" t="s">
+        <v>634</v>
+      </c>
+      <c r="K83" t="s">
+        <v>635</v>
+      </c>
+      <c r="L83" t="s">
+        <v>636</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>637</v>
+      </c>
+      <c r="O83" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>639</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>640</v>
+      </c>
+      <c r="J84" t="s">
+        <v>641</v>
+      </c>
+      <c r="K84" t="s">
+        <v>642</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>644</v>
+      </c>
+      <c r="O84" t="s">
+        <v>82</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>646</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>647</v>
+      </c>
+      <c r="J85" t="s">
+        <v>648</v>
+      </c>
+      <c r="K85" t="s">
+        <v>649</v>
+      </c>
+      <c r="L85" t="s">
+        <v>650</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34727</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>652</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>653</v>
+      </c>
+      <c r="J86" t="s">
+        <v>654</v>
+      </c>
+      <c r="K86" t="s">
+        <v>655</v>
+      </c>
+      <c r="L86" t="s">
+        <v>656</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>657</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
